--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="9420" windowWidth="19560"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="CONFIG" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="CONFIG" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -20,9 +20,9 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -41,7 +41,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="593">
   <si>
     <t>target</t>
   </si>
@@ -1835,6 +1835,27 @@
   </si>
   <si>
     <t>[CONFIG(${file}) =&gt; save(E:\Program Files\newFile.properties)]</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1868,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="59">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2045,8 +2066,210 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2251,8 +2474,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2388,324 +2764,746 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="10" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="20" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="5" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="5" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="67">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="10">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="10">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2739,7 +3537,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -2761,10 +3559,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2928,21 +3726,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2959,7 +3757,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3012,20 +3810,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AE135"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +4013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3301,7 +4099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3330,7 +4128,7 @@
         <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>587</v>
       </c>
       <c r="M4" t="s">
         <v>97</v>
@@ -3366,7 +4164,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>589</v>
       </c>
       <c r="AA4" t="s">
         <v>109</v>
@@ -3384,7 +4182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3413,7 +4211,7 @@
         <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
         <v>122</v>
@@ -3458,7 +4256,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3480,11 +4278,14 @@
       <c r="I6" t="s">
         <v>141</v>
       </c>
+      <c r="J6" t="s">
+        <v>586</v>
+      </c>
       <c r="K6" t="s">
         <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s">
         <v>143</v>
@@ -3526,7 +4327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +4347,7 @@
         <v>160</v>
       </c>
       <c r="L7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -3588,7 +4389,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3605,7 +4406,7 @@
         <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="N8" t="s">
         <v>179</v>
@@ -3644,7 +4445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3661,7 +4462,7 @@
         <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="N9" t="s">
         <v>196</v>
@@ -3691,7 +4492,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +4506,7 @@
         <v>206</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
         <v>208</v>
@@ -3732,7 +4533,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3746,7 +4547,7 @@
         <v>218</v>
       </c>
       <c r="L11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N11" t="s">
         <v>220</v>
@@ -3770,7 +4571,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +4585,7 @@
         <v>229</v>
       </c>
       <c r="L12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N12" t="s">
         <v>231</v>
@@ -3808,7 +4609,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3822,7 +4623,7 @@
         <v>239</v>
       </c>
       <c r="L13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N13" t="s">
         <v>241</v>
@@ -3843,7 +4644,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +4658,7 @@
         <v>249</v>
       </c>
       <c r="L14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -3878,7 +4679,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3889,7 +4690,7 @@
         <v>258</v>
       </c>
       <c r="L15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
         <v>260</v>
@@ -3910,7 +4711,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3921,7 +4722,7 @@
         <v>267</v>
       </c>
       <c r="L16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N16" t="s">
         <v>269</v>
@@ -3942,7 +4743,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3953,7 +4754,7 @@
         <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N17" t="s">
         <v>278</v>
@@ -3968,7 +4769,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3979,7 +4780,7 @@
         <v>283</v>
       </c>
       <c r="L18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N18" t="s">
         <v>285</v>
@@ -3991,7 +4792,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4002,7 +4803,7 @@
         <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Z19" t="s">
         <v>291</v>
@@ -4011,7 +4812,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4022,7 +4823,7 @@
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Z20" t="s">
         <v>296</v>
@@ -4031,7 +4832,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4042,7 +4843,7 @@
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Z21" t="s">
         <v>301</v>
@@ -4051,7 +4852,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4062,7 +4863,7 @@
         <v>304</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>588</v>
       </c>
       <c r="Z22" t="s">
         <v>306</v>
@@ -4071,7 +4872,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4082,7 +4883,7 @@
         <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Z23" t="s">
         <v>311</v>
@@ -4091,7 +4892,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4102,7 +4903,7 @@
         <v>314</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Z24" t="s">
         <v>316</v>
@@ -4111,7 +4912,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4122,7 +4923,7 @@
         <v>319</v>
       </c>
       <c r="L25" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Z25" t="s">
         <v>321</v>
@@ -4131,7 +4932,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4142,7 +4943,7 @@
         <v>324</v>
       </c>
       <c r="L26" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Z26" t="s">
         <v>326</v>
@@ -4151,7 +4952,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4162,7 +4963,7 @@
         <v>329</v>
       </c>
       <c r="L27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z27" t="s">
         <v>331</v>
@@ -4171,7 +4972,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4182,13 +4983,13 @@
         <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Z28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4199,13 +5000,13 @@
         <v>338</v>
       </c>
       <c r="L29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Z29" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4215,11 +5016,14 @@
       <c r="H30" t="s">
         <v>342</v>
       </c>
+      <c r="L30" t="s">
+        <v>339</v>
+      </c>
       <c r="Z30" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4233,7 +5037,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="6:26">
+    <row r="32">
       <c r="F32" t="s">
         <v>347</v>
       </c>
@@ -4244,7 +5048,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="6:26">
+    <row r="33">
       <c r="F33" t="s">
         <v>350</v>
       </c>
@@ -4255,7 +5059,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="6:26">
+    <row r="34">
       <c r="F34" t="s">
         <v>353</v>
       </c>
@@ -4266,7 +5070,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="6:26">
+    <row r="35">
       <c r="F35" t="s">
         <v>356</v>
       </c>
@@ -4277,7 +5081,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="6:26">
+    <row r="36">
       <c r="F36" t="s">
         <v>359</v>
       </c>
@@ -4288,7 +5092,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="6:26">
+    <row r="37">
       <c r="F37" t="s">
         <v>362</v>
       </c>
@@ -4299,7 +5103,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="6:26">
+    <row r="38">
       <c r="F38" t="s">
         <v>365</v>
       </c>
@@ -4310,7 +5114,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="6:26">
+    <row r="39">
       <c r="F39" t="s">
         <v>368</v>
       </c>
@@ -4321,7 +5125,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="8:26">
+    <row r="40">
       <c r="H40" t="s">
         <v>371</v>
       </c>
@@ -4329,7 +5133,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="8:26">
+    <row r="41">
       <c r="H41" t="s">
         <v>373</v>
       </c>
@@ -4337,7 +5141,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="8:26">
+    <row r="42">
       <c r="H42" t="s">
         <v>375</v>
       </c>
@@ -4345,7 +5149,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="8:26">
+    <row r="43">
       <c r="H43" t="s">
         <v>377</v>
       </c>
@@ -4353,7 +5157,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="8:26">
+    <row r="44">
       <c r="H44" t="s">
         <v>379</v>
       </c>
@@ -4361,7 +5165,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="8:26">
+    <row r="45">
       <c r="H45" t="s">
         <v>381</v>
       </c>
@@ -4369,7 +5173,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="8:26">
+    <row r="46">
       <c r="H46" t="s">
         <v>383</v>
       </c>
@@ -4377,7 +5181,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="8:26">
+    <row r="47">
       <c r="H47" t="s">
         <v>385</v>
       </c>
@@ -4385,7 +5189,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="8:26">
+    <row r="48">
       <c r="H48" t="s">
         <v>387</v>
       </c>
@@ -4393,7 +5197,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="8:26">
+    <row r="49">
       <c r="H49" t="s">
         <v>389</v>
       </c>
@@ -4401,7 +5205,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="8:26">
+    <row r="50">
       <c r="H50" t="s">
         <v>391</v>
       </c>
@@ -4409,7 +5213,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="8:26">
+    <row r="51">
       <c r="H51" t="s">
         <v>393</v>
       </c>
@@ -4417,7 +5221,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="8:26">
+    <row r="52">
       <c r="H52" t="s">
         <v>395</v>
       </c>
@@ -4425,7 +5229,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="8:26">
+    <row r="53">
       <c r="H53" t="s">
         <v>397</v>
       </c>
@@ -4433,7 +5237,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="8:26">
+    <row r="54">
       <c r="H54" t="s">
         <v>399</v>
       </c>
@@ -4441,7 +5245,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="8:26">
+    <row r="55">
       <c r="H55" t="s">
         <v>401</v>
       </c>
@@ -4449,7 +5253,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="8:26">
+    <row r="56">
       <c r="H56" t="s">
         <v>403</v>
       </c>
@@ -4457,7 +5261,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="8:26">
+    <row r="57">
       <c r="H57" t="s">
         <v>405</v>
       </c>
@@ -4465,7 +5269,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="8:26">
+    <row r="58">
       <c r="H58" t="s">
         <v>407</v>
       </c>
@@ -4473,7 +5277,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="8:26">
+    <row r="59">
       <c r="H59" t="s">
         <v>409</v>
       </c>
@@ -4481,7 +5285,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="8:26">
+    <row r="60">
       <c r="H60" t="s">
         <v>411</v>
       </c>
@@ -4489,7 +5293,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="8:26">
+    <row r="61">
       <c r="H61" t="s">
         <v>413</v>
       </c>
@@ -4497,7 +5301,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" spans="8:26">
+    <row r="62">
       <c r="H62" t="s">
         <v>415</v>
       </c>
@@ -4505,7 +5309,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="8:26">
+    <row r="63">
       <c r="H63" t="s">
         <v>417</v>
       </c>
@@ -4513,7 +5317,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="8:26">
+    <row r="64">
       <c r="H64" t="s">
         <v>419</v>
       </c>
@@ -4521,7 +5325,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="8:26">
+    <row r="65">
       <c r="H65" t="s">
         <v>421</v>
       </c>
@@ -4529,7 +5333,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="8:26">
+    <row r="66">
       <c r="H66" t="s">
         <v>423</v>
       </c>
@@ -4537,7 +5341,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="67" spans="8:26">
+    <row r="67">
       <c r="H67" t="s">
         <v>425</v>
       </c>
@@ -4545,7 +5349,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="68" spans="8:26">
+    <row r="68">
       <c r="H68" t="s">
         <v>427</v>
       </c>
@@ -4553,7 +5357,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="8:26">
+    <row r="69">
       <c r="H69" t="s">
         <v>429</v>
       </c>
@@ -4561,7 +5365,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="70" spans="8:26">
+    <row r="70">
       <c r="H70" t="s">
         <v>431</v>
       </c>
@@ -4569,7 +5373,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="8:26">
+    <row r="71">
       <c r="H71" t="s">
         <v>433</v>
       </c>
@@ -4577,7 +5381,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="8:26">
+    <row r="72">
       <c r="H72" t="s">
         <v>435</v>
       </c>
@@ -4585,7 +5389,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="8:26">
+    <row r="73">
       <c r="H73" t="s">
         <v>437</v>
       </c>
@@ -4593,7 +5397,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="8:26">
+    <row r="74">
       <c r="H74" t="s">
         <v>439</v>
       </c>
@@ -4601,7 +5405,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="75" spans="8:26">
+    <row r="75">
       <c r="H75" t="s">
         <v>441</v>
       </c>
@@ -4609,7 +5413,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="76" spans="8:26">
+    <row r="76">
       <c r="H76" t="s">
         <v>443</v>
       </c>
@@ -4617,7 +5421,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="8:26">
+    <row r="77">
       <c r="H77" t="s">
         <v>445</v>
       </c>
@@ -4625,7 +5429,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="8:26">
+    <row r="78">
       <c r="H78" t="s">
         <v>447</v>
       </c>
@@ -4633,7 +5437,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="8:26">
+    <row r="79">
       <c r="H79" t="s">
         <v>449</v>
       </c>
@@ -4641,7 +5445,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="8:26">
+    <row r="80">
       <c r="H80" t="s">
         <v>451</v>
       </c>
@@ -4649,7 +5453,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="81" spans="8:26">
+    <row r="81">
       <c r="H81" t="s">
         <v>453</v>
       </c>
@@ -4657,7 +5461,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="8:26">
+    <row r="82">
       <c r="H82" t="s">
         <v>455</v>
       </c>
@@ -4665,7 +5469,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="8:26">
+    <row r="83">
       <c r="H83" t="s">
         <v>457</v>
       </c>
@@ -4673,7 +5477,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="8:26">
+    <row r="84">
       <c r="H84" t="s">
         <v>459</v>
       </c>
@@ -4681,7 +5485,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="8:26">
+    <row r="85">
       <c r="H85" t="s">
         <v>461</v>
       </c>
@@ -4689,7 +5493,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="86" spans="8:26">
+    <row r="86">
       <c r="H86" t="s">
         <v>463</v>
       </c>
@@ -4697,7 +5501,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="87" spans="8:26">
+    <row r="87">
       <c r="H87" t="s">
         <v>465</v>
       </c>
@@ -4705,7 +5509,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="8:26">
+    <row r="88">
       <c r="H88" t="s">
         <v>467</v>
       </c>
@@ -4713,307 +5517,322 @@
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="8:26">
+    <row r="89">
       <c r="H89" t="s">
         <v>469</v>
       </c>
       <c r="Z89" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>471</v>
       </c>
       <c r="Z90" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>473</v>
       </c>
       <c r="Z91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>475</v>
       </c>
       <c r="Z92" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>477</v>
       </c>
       <c r="Z93" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>479</v>
       </c>
       <c r="Z94" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>481</v>
       </c>
       <c r="Z95" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>483</v>
       </c>
       <c r="Z96" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>485</v>
       </c>
       <c r="Z97" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>487</v>
       </c>
       <c r="Z98" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="99" spans="26:26">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Z101" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="Z102" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="26:26">
-      <c r="Z100" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="26:26">
-      <c r="Z101" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="26:26">
-      <c r="Z102" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="26:26">
-      <c r="Z103" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="26:26">
-      <c r="Z104" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="26:26">
-      <c r="Z105" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="26:26">
-      <c r="Z106" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="107" spans="26:26">
-      <c r="Z107" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="108" spans="26:26">
-      <c r="Z108" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="109" spans="26:26">
-      <c r="Z109" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="110" spans="26:26">
-      <c r="Z110" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="26:26">
-      <c r="Z111" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="112" spans="26:26">
-      <c r="Z112" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="113" spans="26:26">
-      <c r="Z113" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="114" spans="26:26">
-      <c r="Z114" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="26:26">
-      <c r="Z115" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="26:26">
-      <c r="Z116" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="117" spans="26:26">
-      <c r="Z117" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="26:26">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="119" spans="26:26">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="120" spans="26:26">
-      <c r="Z120" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="121" spans="26:26">
-      <c r="Z121" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="26:26">
-      <c r="Z122" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="26:26">
-      <c r="Z123" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="124" spans="26:26">
-      <c r="Z124" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="125" spans="26:26">
-      <c r="Z125" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="126" spans="26:26">
-      <c r="Z126" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="127" spans="26:26">
-      <c r="Z127" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="26:26">
-      <c r="Z128" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="26:26">
-      <c r="Z129" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="26:26">
-      <c r="Z130" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="131" spans="26:26">
-      <c r="Z131" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="26:26">
-      <c r="Z132" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="26:26">
-      <c r="Z133" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="26:26">
-      <c r="Z134" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="26:26">
-      <c r="Z135" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>525</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O297"/>
+  <dimension ref="A1:P297"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="true" topLeftCell="C1" workbookViewId="0" zoomScale="100" zoomScaleNormal="80">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A11" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E19" pane="bottomLeft" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.8333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.8333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="76.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.375" style="5" customWidth="1"/>
-    <col min="7" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="25.8333333333333" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.8333333333333" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="31.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="76.25" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="59.375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>526</v>
       </c>
@@ -5044,7 +5863,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>533</v>
       </c>
@@ -5065,7 +5884,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="10" r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -5082,7 +5901,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="17" r="4" s="1" spans="1:15">
       <c r="A4" s="23" t="s">
         <v>535</v>
       </c>
@@ -5127,7 +5946,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="42" r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>548</v>
       </c>
@@ -5156,7 +5975,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" ht="32" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="32" r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>552</v>
       </c>
@@ -5185,7 +6004,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" ht="35" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="35" r="7" spans="1:15">
       <c r="A7" s="18" t="s">
         <v>556</v>
       </c>
@@ -5214,7 +6033,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" ht="40" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="40" r="8" spans="1:15">
       <c r="A8" s="18" t="s">
         <v>560</v>
       </c>
@@ -5241,7 +6060,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" ht="90" spans="1:15">
+    <row ht="90" r="9" spans="1:15">
       <c r="A9" s="18" t="s">
         <v>563</v>
       </c>
@@ -5270,7 +6089,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" ht="41" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="41" r="10" spans="1:15">
       <c r="A10" s="18" t="s">
         <v>567</v>
       </c>
@@ -5297,7 +6116,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="135" spans="1:15">
+    <row ht="135" r="11" spans="1:15">
       <c r="A11" s="18" t="s">
         <v>570</v>
       </c>
@@ -5326,7 +6145,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="12" spans="1:15">
       <c r="A12" s="18" t="s">
         <v>574</v>
       </c>
@@ -5355,7 +6174,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="90" spans="1:15">
+    <row ht="90" r="13" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
@@ -5380,7 +6199,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="14" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24" t="s">
@@ -5405,7 +6224,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="15" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="24" t="s">
@@ -5430,7 +6249,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="16" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="24" t="s">
@@ -5455,7 +6274,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="17" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24"/>
@@ -5472,7 +6291,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="18" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
@@ -5489,7 +6308,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="19" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="24"/>
@@ -5506,7 +6325,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="20" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="24"/>
@@ -5523,7 +6342,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="21" spans="1:15">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="24"/>
@@ -5540,7 +6359,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="22" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
@@ -5557,7 +6376,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="23" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="24"/>
@@ -5574,7 +6393,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="24" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24"/>
@@ -5591,7 +6410,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="25" spans="1:15">
       <c r="A25" s="18"/>
       <c r="B25" s="27"/>
       <c r="C25" s="24"/>
@@ -5608,7 +6427,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="26" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="24"/>
@@ -5625,7 +6444,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="27" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="24"/>
@@ -5642,7 +6461,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="28" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
@@ -5659,7 +6478,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="29" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="24"/>
@@ -5676,7 +6495,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="30" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24"/>
@@ -5693,7 +6512,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="31" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="24"/>
@@ -5710,7 +6529,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="32" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
@@ -5727,7 +6546,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="33" spans="1:15">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="24"/>
@@ -5744,7 +6563,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="34" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="24"/>
@@ -5761,7 +6580,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="35" spans="1:15">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="24"/>
@@ -5778,7 +6597,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="36" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="24"/>
@@ -5795,7 +6614,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="37" spans="1:15">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
@@ -5812,7 +6631,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="38" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="24"/>
@@ -5829,7 +6648,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="39" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="24"/>
@@ -5846,7 +6665,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="40" spans="1:15">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="24"/>
@@ -5863,7 +6682,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="41" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="24"/>
@@ -5880,7 +6699,7 @@
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="42" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="24"/>
@@ -5897,7 +6716,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="43" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="24"/>
@@ -5914,7 +6733,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="21"/>
     </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="44" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="24"/>
@@ -5931,7 +6750,7 @@
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="45" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="24"/>
@@ -5948,7 +6767,7 @@
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="46" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="24"/>
@@ -5965,7 +6784,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="47" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="24"/>
@@ -5982,7 +6801,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="48" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="24"/>
@@ -5999,7 +6818,7 @@
       <c r="N48" s="22"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="49" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="24"/>
@@ -6016,7 +6835,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="50" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="24"/>
@@ -6033,7 +6852,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="51" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="24"/>
@@ -6050,7 +6869,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="21"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="52" spans="1:15">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="24"/>
@@ -6067,7 +6886,7 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="53" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="24"/>
@@ -6084,7 +6903,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="21"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="54" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="24"/>
@@ -6101,7 +6920,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="21"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="55" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="24"/>
@@ -6118,7 +6937,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="56" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="24"/>
@@ -6135,7 +6954,7 @@
       <c r="N56" s="22"/>
       <c r="O56" s="21"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="57" spans="1:15">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="24"/>
@@ -6152,7 +6971,7 @@
       <c r="N57" s="22"/>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="58" spans="1:15">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="24"/>
@@ -6169,7 +6988,7 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="59" spans="1:15">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="24"/>
@@ -6186,7 +7005,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="21"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="60" spans="1:15">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="24"/>
@@ -6203,7 +7022,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="61" spans="1:15">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="24"/>
@@ -6220,7 +7039,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="62" spans="1:15">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="24"/>
@@ -6237,7 +7056,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="21"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="63" spans="1:15">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="24"/>
@@ -6254,7 +7073,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="21"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="64" spans="1:15">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="24"/>
@@ -6271,7 +7090,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="21"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="65" spans="1:15">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="24"/>
@@ -6288,7 +7107,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="21"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="66" spans="1:15">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="24"/>
@@ -6305,7 +7124,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="67" spans="1:15">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
@@ -6322,7 +7141,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="68" spans="1:15">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="24"/>
@@ -6339,7 +7158,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="69" spans="1:15">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="24"/>
@@ -6356,7 +7175,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="70" spans="1:15">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="24"/>
@@ -6373,7 +7192,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="71" spans="1:15">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="24"/>
@@ -6390,7 +7209,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="72" spans="1:15">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="24"/>
@@ -6407,7 +7226,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="73" spans="1:15">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="24"/>
@@ -6424,7 +7243,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="74" spans="1:15">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="24"/>
@@ -6441,7 +7260,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="75" spans="1:15">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="24"/>
@@ -6458,7 +7277,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="76" spans="1:15">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="24"/>
@@ -6475,7 +7294,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="77" spans="1:15">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="24"/>
@@ -6492,7 +7311,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="78" spans="1:15">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="24"/>
@@ -6509,7 +7328,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="79" spans="1:15">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="24"/>
@@ -6526,7 +7345,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="80" spans="1:15">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="24"/>
@@ -6543,7 +7362,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="81" spans="1:15">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="24"/>
@@ -6560,7 +7379,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="82" spans="1:15">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="24"/>
@@ -6577,7 +7396,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="83" spans="1:15">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="24"/>
@@ -6594,7 +7413,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="84" spans="1:15">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="24"/>
@@ -6611,7 +7430,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="85" spans="1:15">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="24"/>
@@ -6628,7 +7447,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="86" spans="1:15">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="24"/>
@@ -6645,7 +7464,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="87" spans="1:15">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="24"/>
@@ -6662,7 +7481,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="88" spans="1:15">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="24"/>
@@ -6679,7 +7498,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="89" spans="1:15">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="24"/>
@@ -6696,7 +7515,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="90" spans="1:15">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="24"/>
@@ -6713,7 +7532,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="91" spans="1:15">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="24"/>
@@ -6730,7 +7549,7 @@
       <c r="N91" s="22"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="92" spans="1:15">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="24"/>
@@ -6747,7 +7566,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="21"/>
     </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="93" spans="1:15">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="24"/>
@@ -6764,7 +7583,7 @@
       <c r="N93" s="22"/>
       <c r="O93" s="21"/>
     </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="94" spans="1:15">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="24"/>
@@ -6781,7 +7600,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="21"/>
     </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="95" spans="1:15">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="24"/>
@@ -6798,7 +7617,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="21"/>
     </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="96" spans="1:15">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="24"/>
@@ -6815,7 +7634,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="97" spans="1:15">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="24"/>
@@ -6832,7 +7651,7 @@
       <c r="N97" s="22"/>
       <c r="O97" s="21"/>
     </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="98" spans="1:15">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="24"/>
@@ -6849,7 +7668,7 @@
       <c r="N98" s="22"/>
       <c r="O98" s="21"/>
     </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="99" spans="1:15">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="24"/>
@@ -6866,7 +7685,7 @@
       <c r="N99" s="22"/>
       <c r="O99" s="21"/>
     </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="100" spans="1:15">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="24"/>
@@ -6883,7 +7702,7 @@
       <c r="N100" s="22"/>
       <c r="O100" s="21"/>
     </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="101" spans="1:15">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="24"/>
@@ -6900,7 +7719,7 @@
       <c r="N101" s="22"/>
       <c r="O101" s="21"/>
     </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="102" spans="1:15">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="24"/>
@@ -6917,7 +7736,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="21"/>
     </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="103" spans="1:15">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="24"/>
@@ -6934,7 +7753,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="21"/>
     </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="104" spans="1:15">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="24"/>
@@ -6951,7 +7770,7 @@
       <c r="N104" s="22"/>
       <c r="O104" s="21"/>
     </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="105" spans="1:15">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
       <c r="C105" s="24"/>
@@ -6968,7 +7787,7 @@
       <c r="N105" s="22"/>
       <c r="O105" s="21"/>
     </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="106" spans="1:15">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
       <c r="C106" s="24"/>
@@ -6985,7 +7804,7 @@
       <c r="N106" s="22"/>
       <c r="O106" s="21"/>
     </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="24"/>
@@ -7002,7 +7821,7 @@
       <c r="N107" s="22"/>
       <c r="O107" s="21"/>
     </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
       <c r="C108" s="24"/>
@@ -7019,7 +7838,7 @@
       <c r="N108" s="22"/>
       <c r="O108" s="21"/>
     </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="24"/>
@@ -7036,7 +7855,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="21"/>
     </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
       <c r="C110" s="24"/>
@@ -7053,7 +7872,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="21"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="24"/>
@@ -7070,7 +7889,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="21"/>
     </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="24"/>
@@ -7087,7 +7906,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="21"/>
     </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="24"/>
@@ -7104,7 +7923,7 @@
       <c r="N113" s="22"/>
       <c r="O113" s="21"/>
     </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="24"/>
@@ -7121,7 +7940,7 @@
       <c r="N114" s="22"/>
       <c r="O114" s="21"/>
     </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="C115" s="24"/>
@@ -7138,7 +7957,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="21"/>
     </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="24"/>
@@ -7155,7 +7974,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="21"/>
     </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="117" spans="1:15">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="24"/>
@@ -7172,7 +7991,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="21"/>
     </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="118" spans="1:15">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="C118" s="24"/>
@@ -7189,7 +8008,7 @@
       <c r="N118" s="22"/>
       <c r="O118" s="21"/>
     </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="119" spans="1:15">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="24"/>
@@ -7206,7 +8025,7 @@
       <c r="N119" s="22"/>
       <c r="O119" s="21"/>
     </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="120" spans="1:15">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="24"/>
@@ -7223,7 +8042,7 @@
       <c r="N120" s="22"/>
       <c r="O120" s="21"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="121" spans="1:15">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="24"/>
@@ -7240,7 +8059,7 @@
       <c r="N121" s="22"/>
       <c r="O121" s="21"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="122" spans="1:15">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="24"/>
@@ -7257,7 +8076,7 @@
       <c r="N122" s="22"/>
       <c r="O122" s="21"/>
     </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="123" spans="1:15">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="24"/>
@@ -7274,7 +8093,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="21"/>
     </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="124" spans="1:15">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="24"/>
@@ -7291,7 +8110,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="21"/>
     </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="125" spans="1:15">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="24"/>
@@ -7308,7 +8127,7 @@
       <c r="N125" s="22"/>
       <c r="O125" s="21"/>
     </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="126" spans="1:15">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="24"/>
@@ -7325,7 +8144,7 @@
       <c r="N126" s="22"/>
       <c r="O126" s="21"/>
     </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="127" spans="1:15">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="24"/>
@@ -7342,7 +8161,7 @@
       <c r="N127" s="22"/>
       <c r="O127" s="21"/>
     </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="128" spans="1:15">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="24"/>
@@ -7359,7 +8178,7 @@
       <c r="N128" s="22"/>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="129" spans="1:15">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="24"/>
@@ -7376,7 +8195,7 @@
       <c r="N129" s="22"/>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="130" spans="1:15">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="24"/>
@@ -7393,7 +8212,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="131" spans="1:15">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="24"/>
@@ -7410,7 +8229,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="132" spans="1:15">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="24"/>
@@ -7427,7 +8246,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="133" spans="1:15">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
       <c r="C133" s="24"/>
@@ -7444,7 +8263,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="134" spans="1:15">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="24"/>
@@ -7461,7 +8280,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="21"/>
     </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="135" spans="1:15">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="C135" s="24"/>
@@ -7478,7 +8297,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="136" spans="1:15">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="24"/>
@@ -7495,7 +8314,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="137" spans="1:15">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="C137" s="24"/>
@@ -7512,7 +8331,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="138" spans="1:15">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="C138" s="24"/>
@@ -7529,7 +8348,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="139" spans="1:15">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="C139" s="24"/>
@@ -7546,7 +8365,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="140" spans="1:15">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="C140" s="24"/>
@@ -7563,7 +8382,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="141" spans="1:15">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
       <c r="C141" s="24"/>
@@ -7580,7 +8399,7 @@
       <c r="N141" s="22"/>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="142" spans="1:15">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
       <c r="C142" s="24"/>
@@ -7597,7 +8416,7 @@
       <c r="N142" s="22"/>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="143" spans="1:15">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
       <c r="C143" s="24"/>
@@ -7614,7 +8433,7 @@
       <c r="N143" s="22"/>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="144" spans="1:15">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
       <c r="C144" s="24"/>
@@ -7631,7 +8450,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="145" spans="1:15">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="24"/>
@@ -7648,7 +8467,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="21"/>
     </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="146" spans="1:15">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="24"/>
@@ -7665,7 +8484,7 @@
       <c r="N146" s="22"/>
       <c r="O146" s="21"/>
     </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="147" spans="1:15">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
       <c r="C147" s="24"/>
@@ -7682,7 +8501,7 @@
       <c r="N147" s="22"/>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="148" spans="1:15">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="24"/>
@@ -7699,7 +8518,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="149" spans="1:15">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="24"/>
@@ -7716,7 +8535,7 @@
       <c r="N149" s="22"/>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="150" spans="1:15">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="24"/>
@@ -7733,7 +8552,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="151" spans="1:15">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
       <c r="C151" s="24"/>
@@ -7750,7 +8569,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="152" spans="1:15">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="24"/>
@@ -7767,7 +8586,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="153" spans="1:15">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="24"/>
@@ -7784,7 +8603,7 @@
       <c r="N153" s="22"/>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="154" spans="1:15">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
       <c r="C154" s="24"/>
@@ -7801,7 +8620,7 @@
       <c r="N154" s="22"/>
       <c r="O154" s="21"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="155" spans="1:15">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
       <c r="C155" s="24"/>
@@ -7818,7 +8637,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="21"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="156" spans="1:15">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
       <c r="C156" s="24"/>
@@ -7835,7 +8654,7 @@
       <c r="N156" s="22"/>
       <c r="O156" s="21"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="157" spans="1:15">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
       <c r="C157" s="24"/>
@@ -7852,7 +8671,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="21"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="158" spans="1:15">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
       <c r="C158" s="24"/>
@@ -7869,7 +8688,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="21"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="159" spans="1:15">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="24"/>
@@ -7886,7 +8705,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="21"/>
     </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="160" spans="1:15">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
       <c r="C160" s="24"/>
@@ -7903,7 +8722,7 @@
       <c r="N160" s="22"/>
       <c r="O160" s="21"/>
     </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="161" spans="1:15">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
       <c r="C161" s="24"/>
@@ -7920,7 +8739,7 @@
       <c r="N161" s="22"/>
       <c r="O161" s="21"/>
     </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="162" spans="1:15">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
       <c r="C162" s="24"/>
@@ -7937,7 +8756,7 @@
       <c r="N162" s="22"/>
       <c r="O162" s="21"/>
     </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="163" spans="1:15">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
       <c r="C163" s="24"/>
@@ -7954,7 +8773,7 @@
       <c r="N163" s="22"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="164" spans="1:15">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
       <c r="C164" s="24"/>
@@ -7971,7 +8790,7 @@
       <c r="N164" s="22"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="165" spans="1:15">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
       <c r="C165" s="24"/>
@@ -7988,7 +8807,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="166" spans="1:15">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
       <c r="C166" s="24"/>
@@ -8005,7 +8824,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="167" spans="1:15">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
       <c r="C167" s="24"/>
@@ -8022,7 +8841,7 @@
       <c r="N167" s="22"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="168" spans="1:15">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="24"/>
@@ -8039,7 +8858,7 @@
       <c r="N168" s="22"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="169" spans="1:15">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
       <c r="C169" s="24"/>
@@ -8056,7 +8875,7 @@
       <c r="N169" s="22"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="170" spans="1:15">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
       <c r="C170" s="24"/>
@@ -8073,7 +8892,7 @@
       <c r="N170" s="22"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="171" spans="1:15">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
       <c r="C171" s="24"/>
@@ -8090,7 +8909,7 @@
       <c r="N171" s="22"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="172" spans="1:15">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="24"/>
@@ -8107,7 +8926,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="173" spans="1:15">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
       <c r="C173" s="24"/>
@@ -8124,7 +8943,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="174" spans="1:15">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="24"/>
@@ -8141,7 +8960,7 @@
       <c r="N174" s="22"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="175" spans="1:15">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="24"/>
@@ -8158,7 +8977,7 @@
       <c r="N175" s="22"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="176" spans="1:15">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="24"/>
@@ -8175,7 +8994,7 @@
       <c r="N176" s="22"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="177" spans="1:15">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
       <c r="C177" s="24"/>
@@ -8192,7 +9011,7 @@
       <c r="N177" s="22"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="178" spans="1:15">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="24"/>
@@ -8209,7 +9028,7 @@
       <c r="N178" s="22"/>
       <c r="O178" s="21"/>
     </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="179" spans="1:15">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
       <c r="C179" s="24"/>
@@ -8226,7 +9045,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="21"/>
     </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="180" spans="1:15">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
       <c r="C180" s="24"/>
@@ -8243,7 +9062,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="21"/>
     </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="181" spans="1:15">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
       <c r="C181" s="24"/>
@@ -8260,7 +9079,7 @@
       <c r="N181" s="22"/>
       <c r="O181" s="21"/>
     </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="182" spans="1:15">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
       <c r="C182" s="24"/>
@@ -8277,7 +9096,7 @@
       <c r="N182" s="22"/>
       <c r="O182" s="21"/>
     </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="183" spans="1:15">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
       <c r="C183" s="24"/>
@@ -8294,7 +9113,7 @@
       <c r="N183" s="22"/>
       <c r="O183" s="21"/>
     </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="184" spans="1:15">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
       <c r="C184" s="24"/>
@@ -8311,7 +9130,7 @@
       <c r="N184" s="22"/>
       <c r="O184" s="21"/>
     </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="185" spans="1:15">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
       <c r="C185" s="24"/>
@@ -8328,7 +9147,7 @@
       <c r="N185" s="22"/>
       <c r="O185" s="21"/>
     </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="186" spans="1:15">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
       <c r="C186" s="24"/>
@@ -8345,7 +9164,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="21"/>
     </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="187" spans="1:15">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
       <c r="C187" s="24"/>
@@ -8362,7 +9181,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="21"/>
     </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="188" spans="1:15">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
       <c r="C188" s="24"/>
@@ -8379,7 +9198,7 @@
       <c r="N188" s="22"/>
       <c r="O188" s="21"/>
     </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="189" spans="1:15">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
       <c r="C189" s="24"/>
@@ -8396,7 +9215,7 @@
       <c r="N189" s="22"/>
       <c r="O189" s="21"/>
     </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="190" spans="1:15">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
       <c r="C190" s="24"/>
@@ -8413,7 +9232,7 @@
       <c r="N190" s="22"/>
       <c r="O190" s="21"/>
     </row>
-    <row r="191" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="191" spans="1:15">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
       <c r="C191" s="24"/>
@@ -8430,7 +9249,7 @@
       <c r="N191" s="22"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="192" spans="1:15">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
       <c r="C192" s="24"/>
@@ -8447,7 +9266,7 @@
       <c r="N192" s="22"/>
       <c r="O192" s="21"/>
     </row>
-    <row r="193" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="193" spans="1:15">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
       <c r="C193" s="24"/>
@@ -8464,7 +9283,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="21"/>
     </row>
-    <row r="194" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="194" spans="1:15">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
       <c r="C194" s="24"/>
@@ -8481,7 +9300,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="21"/>
     </row>
-    <row r="195" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="195" spans="1:15">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="24"/>
@@ -8498,7 +9317,7 @@
       <c r="N195" s="22"/>
       <c r="O195" s="21"/>
     </row>
-    <row r="196" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="196" spans="1:15">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
       <c r="C196" s="24"/>
@@ -8515,7 +9334,7 @@
       <c r="N196" s="22"/>
       <c r="O196" s="21"/>
     </row>
-    <row r="197" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="197" spans="1:15">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
       <c r="C197" s="24"/>
@@ -8532,7 +9351,7 @@
       <c r="N197" s="22"/>
       <c r="O197" s="21"/>
     </row>
-    <row r="198" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="198" spans="1:15">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
       <c r="C198" s="24"/>
@@ -8549,7 +9368,7 @@
       <c r="N198" s="22"/>
       <c r="O198" s="21"/>
     </row>
-    <row r="199" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="199" spans="1:15">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
       <c r="C199" s="24"/>
@@ -8566,7 +9385,7 @@
       <c r="N199" s="22"/>
       <c r="O199" s="21"/>
     </row>
-    <row r="200" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
       <c r="C200" s="24"/>
@@ -8583,7 +9402,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="21"/>
     </row>
-    <row r="201" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="201" spans="1:15">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="24"/>
@@ -8600,7 +9419,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="21"/>
     </row>
-    <row r="202" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="202" spans="1:15">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
       <c r="C202" s="24"/>
@@ -8617,7 +9436,7 @@
       <c r="N202" s="22"/>
       <c r="O202" s="21"/>
     </row>
-    <row r="203" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="203" spans="1:15">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
       <c r="C203" s="24"/>
@@ -8634,7 +9453,7 @@
       <c r="N203" s="22"/>
       <c r="O203" s="21"/>
     </row>
-    <row r="204" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="204" spans="1:15">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
       <c r="C204" s="24"/>
@@ -8651,7 +9470,7 @@
       <c r="N204" s="22"/>
       <c r="O204" s="21"/>
     </row>
-    <row r="205" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="205" spans="1:15">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
       <c r="C205" s="24"/>
@@ -8668,7 +9487,7 @@
       <c r="N205" s="22"/>
       <c r="O205" s="21"/>
     </row>
-    <row r="206" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="206" spans="1:15">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
       <c r="C206" s="24"/>
@@ -8685,7 +9504,7 @@
       <c r="N206" s="22"/>
       <c r="O206" s="21"/>
     </row>
-    <row r="207" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="207" spans="1:15">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
       <c r="C207" s="24"/>
@@ -8702,7 +9521,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="21"/>
     </row>
-    <row r="208" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="208" spans="1:15">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
       <c r="C208" s="24"/>
@@ -8719,7 +9538,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="21"/>
     </row>
-    <row r="209" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="209" spans="1:15">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
       <c r="C209" s="24"/>
@@ -8736,7 +9555,7 @@
       <c r="N209" s="22"/>
       <c r="O209" s="21"/>
     </row>
-    <row r="210" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="210" spans="1:15">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
       <c r="C210" s="24"/>
@@ -8753,7 +9572,7 @@
       <c r="N210" s="22"/>
       <c r="O210" s="21"/>
     </row>
-    <row r="211" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="211" spans="1:15">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
       <c r="C211" s="24"/>
@@ -8770,7 +9589,7 @@
       <c r="N211" s="22"/>
       <c r="O211" s="21"/>
     </row>
-    <row r="212" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="212" spans="1:15">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
       <c r="C212" s="24"/>
@@ -8787,7 +9606,7 @@
       <c r="N212" s="22"/>
       <c r="O212" s="21"/>
     </row>
-    <row r="213" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="213" spans="1:15">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
       <c r="C213" s="24"/>
@@ -8804,7 +9623,7 @@
       <c r="N213" s="22"/>
       <c r="O213" s="21"/>
     </row>
-    <row r="214" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="214" spans="1:15">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
       <c r="C214" s="24"/>
@@ -8821,7 +9640,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="21"/>
     </row>
-    <row r="215" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="215" spans="1:15">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
       <c r="C215" s="24"/>
@@ -8838,7 +9657,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="21"/>
     </row>
-    <row r="216" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="216" spans="1:15">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
       <c r="C216" s="24"/>
@@ -8855,7 +9674,7 @@
       <c r="N216" s="22"/>
       <c r="O216" s="21"/>
     </row>
-    <row r="217" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="217" spans="1:15">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
       <c r="C217" s="24"/>
@@ -8872,7 +9691,7 @@
       <c r="N217" s="22"/>
       <c r="O217" s="21"/>
     </row>
-    <row r="218" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="218" spans="1:15">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
       <c r="C218" s="24"/>
@@ -8889,7 +9708,7 @@
       <c r="N218" s="22"/>
       <c r="O218" s="21"/>
     </row>
-    <row r="219" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="219" spans="1:15">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
       <c r="C219" s="24"/>
@@ -8906,7 +9725,7 @@
       <c r="N219" s="22"/>
       <c r="O219" s="21"/>
     </row>
-    <row r="220" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="220" spans="1:15">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
       <c r="C220" s="24"/>
@@ -8923,7 +9742,7 @@
       <c r="N220" s="22"/>
       <c r="O220" s="21"/>
     </row>
-    <row r="221" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="221" spans="1:15">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
       <c r="C221" s="24"/>
@@ -8940,7 +9759,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="21"/>
     </row>
-    <row r="222" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="222" spans="1:15">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
       <c r="C222" s="24"/>
@@ -8957,7 +9776,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="21"/>
     </row>
-    <row r="223" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="223" spans="1:15">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
       <c r="C223" s="24"/>
@@ -8974,7 +9793,7 @@
       <c r="N223" s="22"/>
       <c r="O223" s="21"/>
     </row>
-    <row r="224" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="224" spans="1:15">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
       <c r="C224" s="24"/>
@@ -8991,7 +9810,7 @@
       <c r="N224" s="22"/>
       <c r="O224" s="21"/>
     </row>
-    <row r="225" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="225" spans="1:15">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
       <c r="C225" s="24"/>
@@ -9008,7 +9827,7 @@
       <c r="N225" s="22"/>
       <c r="O225" s="21"/>
     </row>
-    <row r="226" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="226" spans="1:15">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
       <c r="C226" s="24"/>
@@ -9025,7 +9844,7 @@
       <c r="N226" s="22"/>
       <c r="O226" s="21"/>
     </row>
-    <row r="227" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="227" spans="1:15">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
       <c r="C227" s="24"/>
@@ -9042,7 +9861,7 @@
       <c r="N227" s="22"/>
       <c r="O227" s="21"/>
     </row>
-    <row r="228" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="228" spans="1:15">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
       <c r="C228" s="24"/>
@@ -9059,7 +9878,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="21"/>
     </row>
-    <row r="229" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="229" spans="1:15">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
       <c r="C229" s="24"/>
@@ -9076,7 +9895,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="21"/>
     </row>
-    <row r="230" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="230" spans="1:15">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
       <c r="C230" s="24"/>
@@ -9093,7 +9912,7 @@
       <c r="N230" s="22"/>
       <c r="O230" s="21"/>
     </row>
-    <row r="231" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="231" spans="1:15">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
       <c r="C231" s="24"/>
@@ -9110,7 +9929,7 @@
       <c r="N231" s="22"/>
       <c r="O231" s="21"/>
     </row>
-    <row r="232" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="232" spans="1:15">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
       <c r="C232" s="24"/>
@@ -9127,7 +9946,7 @@
       <c r="N232" s="22"/>
       <c r="O232" s="21"/>
     </row>
-    <row r="233" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="233" spans="1:15">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
       <c r="C233" s="24"/>
@@ -9144,7 +9963,7 @@
       <c r="N233" s="22"/>
       <c r="O233" s="21"/>
     </row>
-    <row r="234" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="234" spans="1:15">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
       <c r="C234" s="24"/>
@@ -9161,7 +9980,7 @@
       <c r="N234" s="22"/>
       <c r="O234" s="21"/>
     </row>
-    <row r="235" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="235" spans="1:15">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
       <c r="C235" s="24"/>
@@ -9178,7 +9997,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="21"/>
     </row>
-    <row r="236" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="236" spans="1:15">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
       <c r="C236" s="24"/>
@@ -9195,7 +10014,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="21"/>
     </row>
-    <row r="237" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="237" spans="1:15">
       <c r="A237" s="18"/>
       <c r="B237" s="19"/>
       <c r="C237" s="24"/>
@@ -9212,7 +10031,7 @@
       <c r="N237" s="22"/>
       <c r="O237" s="21"/>
     </row>
-    <row r="238" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="238" spans="1:15">
       <c r="A238" s="18"/>
       <c r="B238" s="19"/>
       <c r="C238" s="24"/>
@@ -9229,7 +10048,7 @@
       <c r="N238" s="22"/>
       <c r="O238" s="21"/>
     </row>
-    <row r="239" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="239" spans="1:15">
       <c r="A239" s="18"/>
       <c r="B239" s="19"/>
       <c r="C239" s="24"/>
@@ -9246,7 +10065,7 @@
       <c r="N239" s="22"/>
       <c r="O239" s="21"/>
     </row>
-    <row r="240" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="240" spans="1:15">
       <c r="A240" s="18"/>
       <c r="B240" s="19"/>
       <c r="C240" s="24"/>
@@ -9263,7 +10082,7 @@
       <c r="N240" s="22"/>
       <c r="O240" s="21"/>
     </row>
-    <row r="241" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="241" spans="1:15">
       <c r="A241" s="18"/>
       <c r="B241" s="19"/>
       <c r="C241" s="24"/>
@@ -9280,7 +10099,7 @@
       <c r="N241" s="22"/>
       <c r="O241" s="21"/>
     </row>
-    <row r="242" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="242" spans="1:15">
       <c r="A242" s="18"/>
       <c r="B242" s="19"/>
       <c r="C242" s="24"/>
@@ -9297,7 +10116,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="21"/>
     </row>
-    <row r="243" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="243" spans="1:15">
       <c r="A243" s="18"/>
       <c r="B243" s="19"/>
       <c r="C243" s="24"/>
@@ -9314,7 +10133,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="21"/>
     </row>
-    <row r="244" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="244" spans="1:15">
       <c r="A244" s="18"/>
       <c r="B244" s="19"/>
       <c r="C244" s="24"/>
@@ -9331,7 +10150,7 @@
       <c r="N244" s="22"/>
       <c r="O244" s="21"/>
     </row>
-    <row r="245" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="245" spans="1:15">
       <c r="A245" s="18"/>
       <c r="B245" s="19"/>
       <c r="C245" s="24"/>
@@ -9348,7 +10167,7 @@
       <c r="N245" s="22"/>
       <c r="O245" s="21"/>
     </row>
-    <row r="246" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="246" spans="1:15">
       <c r="A246" s="18"/>
       <c r="B246" s="19"/>
       <c r="C246" s="24"/>
@@ -9365,7 +10184,7 @@
       <c r="N246" s="22"/>
       <c r="O246" s="21"/>
     </row>
-    <row r="247" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="247" spans="1:15">
       <c r="A247" s="18"/>
       <c r="B247" s="19"/>
       <c r="C247" s="24"/>
@@ -9382,7 +10201,7 @@
       <c r="N247" s="22"/>
       <c r="O247" s="21"/>
     </row>
-    <row r="248" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="248" spans="1:15">
       <c r="A248" s="18"/>
       <c r="B248" s="19"/>
       <c r="C248" s="24"/>
@@ -9399,7 +10218,7 @@
       <c r="N248" s="22"/>
       <c r="O248" s="21"/>
     </row>
-    <row r="249" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="249" spans="1:15">
       <c r="A249" s="18"/>
       <c r="B249" s="19"/>
       <c r="C249" s="24"/>
@@ -9416,7 +10235,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="21"/>
     </row>
-    <row r="250" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="250" spans="1:15">
       <c r="A250" s="18"/>
       <c r="B250" s="19"/>
       <c r="C250" s="24"/>
@@ -9433,7 +10252,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="21"/>
     </row>
-    <row r="251" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="251" spans="1:15">
       <c r="A251" s="18"/>
       <c r="B251" s="19"/>
       <c r="C251" s="24"/>
@@ -9450,7 +10269,7 @@
       <c r="N251" s="22"/>
       <c r="O251" s="21"/>
     </row>
-    <row r="252" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="252" spans="1:15">
       <c r="A252" s="18"/>
       <c r="B252" s="19"/>
       <c r="C252" s="24"/>
@@ -9467,7 +10286,7 @@
       <c r="N252" s="22"/>
       <c r="O252" s="21"/>
     </row>
-    <row r="253" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="253" spans="1:15">
       <c r="A253" s="18"/>
       <c r="B253" s="19"/>
       <c r="C253" s="24"/>
@@ -9484,7 +10303,7 @@
       <c r="N253" s="22"/>
       <c r="O253" s="21"/>
     </row>
-    <row r="254" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="254" spans="1:15">
       <c r="A254" s="18"/>
       <c r="B254" s="19"/>
       <c r="C254" s="24"/>
@@ -9501,7 +10320,7 @@
       <c r="N254" s="22"/>
       <c r="O254" s="21"/>
     </row>
-    <row r="255" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="255" spans="1:15">
       <c r="A255" s="18"/>
       <c r="B255" s="19"/>
       <c r="C255" s="24"/>
@@ -9518,7 +10337,7 @@
       <c r="N255" s="22"/>
       <c r="O255" s="21"/>
     </row>
-    <row r="256" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="256" spans="1:15">
       <c r="A256" s="18"/>
       <c r="B256" s="19"/>
       <c r="C256" s="24"/>
@@ -9535,7 +10354,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="21"/>
     </row>
-    <row r="257" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="257" spans="1:15">
       <c r="A257" s="18"/>
       <c r="B257" s="19"/>
       <c r="C257" s="24"/>
@@ -9552,7 +10371,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="21"/>
     </row>
-    <row r="258" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="258" spans="1:15">
       <c r="A258" s="18"/>
       <c r="B258" s="19"/>
       <c r="C258" s="24"/>
@@ -9569,7 +10388,7 @@
       <c r="N258" s="22"/>
       <c r="O258" s="21"/>
     </row>
-    <row r="259" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="259" spans="1:15">
       <c r="A259" s="18"/>
       <c r="B259" s="19"/>
       <c r="C259" s="24"/>
@@ -9586,7 +10405,7 @@
       <c r="N259" s="22"/>
       <c r="O259" s="21"/>
     </row>
-    <row r="260" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="260" spans="1:15">
       <c r="A260" s="18"/>
       <c r="B260" s="19"/>
       <c r="C260" s="24"/>
@@ -9603,7 +10422,7 @@
       <c r="N260" s="22"/>
       <c r="O260" s="21"/>
     </row>
-    <row r="261" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="261" spans="1:15">
       <c r="A261" s="18"/>
       <c r="B261" s="19"/>
       <c r="C261" s="24"/>
@@ -9620,7 +10439,7 @@
       <c r="N261" s="22"/>
       <c r="O261" s="21"/>
     </row>
-    <row r="262" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="262" spans="1:15">
       <c r="A262" s="18"/>
       <c r="B262" s="19"/>
       <c r="C262" s="24"/>
@@ -9637,7 +10456,7 @@
       <c r="N262" s="22"/>
       <c r="O262" s="21"/>
     </row>
-    <row r="263" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="263" spans="1:15">
       <c r="A263" s="18"/>
       <c r="B263" s="19"/>
       <c r="C263" s="24"/>
@@ -9654,7 +10473,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="21"/>
     </row>
-    <row r="264" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="264" spans="1:15">
       <c r="A264" s="18"/>
       <c r="B264" s="19"/>
       <c r="C264" s="24"/>
@@ -9671,7 +10490,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="21"/>
     </row>
-    <row r="265" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="265" spans="1:15">
       <c r="A265" s="18"/>
       <c r="B265" s="19"/>
       <c r="C265" s="24"/>
@@ -9688,7 +10507,7 @@
       <c r="N265" s="22"/>
       <c r="O265" s="21"/>
     </row>
-    <row r="266" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="266" spans="1:15">
       <c r="A266" s="18"/>
       <c r="B266" s="19"/>
       <c r="C266" s="24"/>
@@ -9705,7 +10524,7 @@
       <c r="N266" s="22"/>
       <c r="O266" s="21"/>
     </row>
-    <row r="267" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="267" spans="1:15">
       <c r="A267" s="18"/>
       <c r="B267" s="19"/>
       <c r="C267" s="24"/>
@@ -9722,7 +10541,7 @@
       <c r="N267" s="22"/>
       <c r="O267" s="21"/>
     </row>
-    <row r="268" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="268" spans="1:15">
       <c r="A268" s="18"/>
       <c r="B268" s="19"/>
       <c r="C268" s="24"/>
@@ -9739,7 +10558,7 @@
       <c r="N268" s="22"/>
       <c r="O268" s="21"/>
     </row>
-    <row r="269" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="269" spans="1:15">
       <c r="A269" s="18"/>
       <c r="B269" s="19"/>
       <c r="C269" s="24"/>
@@ -9756,7 +10575,7 @@
       <c r="N269" s="22"/>
       <c r="O269" s="21"/>
     </row>
-    <row r="270" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="270" spans="1:15">
       <c r="A270" s="18"/>
       <c r="B270" s="19"/>
       <c r="C270" s="24"/>
@@ -9773,7 +10592,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="21"/>
     </row>
-    <row r="271" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="271" spans="1:15">
       <c r="A271" s="18"/>
       <c r="B271" s="19"/>
       <c r="C271" s="24"/>
@@ -9790,7 +10609,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="21"/>
     </row>
-    <row r="272" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="272" spans="1:15">
       <c r="A272" s="18"/>
       <c r="B272" s="19"/>
       <c r="C272" s="24"/>
@@ -9807,7 +10626,7 @@
       <c r="N272" s="22"/>
       <c r="O272" s="21"/>
     </row>
-    <row r="273" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="273" spans="1:15">
       <c r="A273" s="18"/>
       <c r="B273" s="19"/>
       <c r="C273" s="24"/>
@@ -9824,7 +10643,7 @@
       <c r="N273" s="22"/>
       <c r="O273" s="21"/>
     </row>
-    <row r="274" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="274" spans="1:15">
       <c r="A274" s="18"/>
       <c r="B274" s="19"/>
       <c r="C274" s="24"/>
@@ -9841,7 +10660,7 @@
       <c r="N274" s="22"/>
       <c r="O274" s="21"/>
     </row>
-    <row r="275" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="275" spans="1:15">
       <c r="A275" s="18"/>
       <c r="B275" s="19"/>
       <c r="C275" s="24"/>
@@ -9858,7 +10677,7 @@
       <c r="N275" s="22"/>
       <c r="O275" s="21"/>
     </row>
-    <row r="276" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="276" spans="1:15">
       <c r="A276" s="18"/>
       <c r="B276" s="19"/>
       <c r="C276" s="24"/>
@@ -9875,7 +10694,7 @@
       <c r="N276" s="22"/>
       <c r="O276" s="21"/>
     </row>
-    <row r="277" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="277" spans="1:15">
       <c r="A277" s="18"/>
       <c r="B277" s="19"/>
       <c r="C277" s="24"/>
@@ -9892,7 +10711,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="21"/>
     </row>
-    <row r="278" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="278" spans="1:15">
       <c r="A278" s="18"/>
       <c r="B278" s="19"/>
       <c r="C278" s="24"/>
@@ -9909,7 +10728,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="21"/>
     </row>
-    <row r="279" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="279" spans="1:15">
       <c r="A279" s="18"/>
       <c r="B279" s="19"/>
       <c r="C279" s="24"/>
@@ -9926,7 +10745,7 @@
       <c r="N279" s="22"/>
       <c r="O279" s="21"/>
     </row>
-    <row r="280" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="280" spans="1:15">
       <c r="A280" s="18"/>
       <c r="B280" s="19"/>
       <c r="C280" s="24"/>
@@ -9943,7 +10762,7 @@
       <c r="N280" s="22"/>
       <c r="O280" s="21"/>
     </row>
-    <row r="281" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="281" spans="1:15">
       <c r="A281" s="18"/>
       <c r="B281" s="19"/>
       <c r="C281" s="24"/>
@@ -9960,7 +10779,7 @@
       <c r="N281" s="22"/>
       <c r="O281" s="21"/>
     </row>
-    <row r="282" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="282" spans="1:15">
       <c r="A282" s="18"/>
       <c r="B282" s="19"/>
       <c r="C282" s="24"/>
@@ -9977,7 +10796,7 @@
       <c r="N282" s="22"/>
       <c r="O282" s="21"/>
     </row>
-    <row r="283" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="283" spans="1:15">
       <c r="A283" s="18"/>
       <c r="B283" s="19"/>
       <c r="C283" s="24"/>
@@ -9994,7 +10813,7 @@
       <c r="N283" s="22"/>
       <c r="O283" s="21"/>
     </row>
-    <row r="284" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="284" spans="1:15">
       <c r="A284" s="18"/>
       <c r="B284" s="19"/>
       <c r="C284" s="24"/>
@@ -10011,7 +10830,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="21"/>
     </row>
-    <row r="285" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="285" spans="1:15">
       <c r="A285" s="18"/>
       <c r="B285" s="19"/>
       <c r="C285" s="24"/>
@@ -10028,7 +10847,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="21"/>
     </row>
-    <row r="286" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="286" spans="1:15">
       <c r="A286" s="18"/>
       <c r="B286" s="19"/>
       <c r="C286" s="24"/>
@@ -10045,7 +10864,7 @@
       <c r="N286" s="22"/>
       <c r="O286" s="21"/>
     </row>
-    <row r="287" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="287" spans="1:15">
       <c r="A287" s="18"/>
       <c r="B287" s="19"/>
       <c r="C287" s="24"/>
@@ -10062,7 +10881,7 @@
       <c r="N287" s="22"/>
       <c r="O287" s="21"/>
     </row>
-    <row r="288" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="288" spans="1:15">
       <c r="A288" s="18"/>
       <c r="B288" s="19"/>
       <c r="C288" s="24"/>
@@ -10079,7 +10898,7 @@
       <c r="N288" s="22"/>
       <c r="O288" s="21"/>
     </row>
-    <row r="289" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="289" spans="1:15">
       <c r="A289" s="18"/>
       <c r="B289" s="19"/>
       <c r="C289" s="24"/>
@@ -10096,7 +10915,7 @@
       <c r="N289" s="22"/>
       <c r="O289" s="21"/>
     </row>
-    <row r="290" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="290" spans="1:15">
       <c r="A290" s="18"/>
       <c r="B290" s="19"/>
       <c r="C290" s="24"/>
@@ -10113,7 +10932,7 @@
       <c r="N290" s="22"/>
       <c r="O290" s="21"/>
     </row>
-    <row r="291" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="291" spans="1:15">
       <c r="A291" s="18"/>
       <c r="B291" s="19"/>
       <c r="C291" s="24"/>
@@ -10130,7 +10949,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="21"/>
     </row>
-    <row r="292" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="292" spans="1:15">
       <c r="A292" s="18"/>
       <c r="B292" s="19"/>
       <c r="C292" s="24"/>
@@ -10147,7 +10966,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="21"/>
     </row>
-    <row r="293" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="293" spans="1:15">
       <c r="A293" s="18"/>
       <c r="B293" s="19"/>
       <c r="C293" s="24"/>
@@ -10164,7 +10983,7 @@
       <c r="N293" s="22"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="294" spans="1:15">
       <c r="A294" s="18"/>
       <c r="B294" s="19"/>
       <c r="C294" s="24"/>
@@ -10181,7 +11000,7 @@
       <c r="N294" s="22"/>
       <c r="O294" s="21"/>
     </row>
-    <row r="295" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="295" spans="1:15">
       <c r="A295" s="18"/>
       <c r="B295" s="19"/>
       <c r="C295" s="24"/>
@@ -10198,7 +11017,7 @@
       <c r="N295" s="22"/>
       <c r="O295" s="21"/>
     </row>
-    <row r="296" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="296" spans="1:15">
       <c r="A296" s="18"/>
       <c r="B296" s="19"/>
       <c r="C296" s="24"/>
@@ -10215,7 +11034,7 @@
       <c r="N296" s="22"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="297" spans="1:15">
       <c r="A297" s="18"/>
       <c r="B297" s="19"/>
       <c r="C297" s="24"/>
@@ -10233,7 +11052,7 @@
       <c r="O297" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10241,36 +11060,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N98:N297">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N97 N298:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C13 C14:C297">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C6 C7:C13 C14:C297" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7:D13 D14:D297">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7:D13 D14:D297" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="593">
   <si>
     <t>target</t>
   </si>
@@ -1868,7 +1868,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="75">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2065,6 +2065,107 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3236,7 +3337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3405,52 +3506,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nexial-project\git\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F11799D6-34FF-4F47-85EF-32ECA274A5EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{F11799D6-34FF-4F47-85EF-32ECA274A5EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="9420" windowWidth="19560" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="CONFIG" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="CONFIG" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -39,7 +39,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -48,9 +48,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="601">
   <si>
     <t>target</t>
   </si>
@@ -1857,12 +1857,43 @@
 property8=value8
 ) =&gt; save(E:\Program Files\newFile.properties)]</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="0"/>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1924,8 +1955,109 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1944,8 +2076,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1983,140 +2268,514 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="52">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2180,7 +2839,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2205,10 +2864,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2372,21 +3031,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2403,7 +3062,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2457,19 +3116,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +3223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +3318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2745,7 +3404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2828,7 +3487,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2890,7 +3549,7 @@
         <v>130</v>
       </c>
       <c r="AB5" t="s">
-        <v>131</v>
+        <v>599</v>
       </c>
       <c r="AC5" t="s">
         <v>132</v>
@@ -2902,7 +3561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +3620,7 @@
         <v>150</v>
       </c>
       <c r="AB6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="AC6" t="s">
         <v>152</v>
@@ -2973,7 +3632,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3023,7 +3682,7 @@
         <v>168</v>
       </c>
       <c r="AB7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AC7" t="s">
         <v>170</v>
@@ -3035,7 +3694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3738,7 @@
         <v>185</v>
       </c>
       <c r="AB8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AC8" t="s">
         <v>187</v>
@@ -3091,7 +3750,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3131,6 +3790,9 @@
       <c r="Z9" t="s">
         <v>201</v>
       </c>
+      <c r="AB9" t="s">
+        <v>186</v>
+      </c>
       <c r="AC9" t="s">
         <v>202</v>
       </c>
@@ -3138,7 +3800,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3149,7 +3811,7 @@
         <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>591</v>
       </c>
       <c r="L10" t="s">
         <v>194</v>
@@ -3172,6 +3834,9 @@
       <c r="Z10" t="s">
         <v>212</v>
       </c>
+      <c r="AB10" t="s">
+        <v>600</v>
+      </c>
       <c r="AC10" t="s">
         <v>213</v>
       </c>
@@ -3179,7 +3844,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3190,7 +3855,7 @@
         <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L11" t="s">
         <v>206</v>
@@ -3217,7 +3882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3228,7 +3893,7 @@
         <v>227</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L12" t="s">
         <v>218</v>
@@ -3255,7 +3920,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3266,7 +3931,7 @@
         <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L13" t="s">
         <v>229</v>
@@ -3278,7 +3943,7 @@
         <v>241</v>
       </c>
       <c r="S13" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
       <c r="Z13" t="s">
         <v>243</v>
@@ -3290,7 +3955,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3301,7 +3966,7 @@
         <v>247</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L14" t="s">
         <v>239</v>
@@ -3313,7 +3978,7 @@
         <v>251</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Z14" t="s">
         <v>253</v>
@@ -3325,7 +3990,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3335,6 +4000,9 @@
       <c r="H15" t="s">
         <v>257</v>
       </c>
+      <c r="I15" t="s">
+        <v>248</v>
+      </c>
       <c r="L15" t="s">
         <v>249</v>
       </c>
@@ -3345,10 +4013,10 @@
         <v>260</v>
       </c>
       <c r="S15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Z15" t="s">
-        <v>262</v>
+        <v>593</v>
       </c>
       <c r="AC15" t="s">
         <v>263</v>
@@ -3357,7 +4025,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3377,10 +4045,10 @@
         <v>269</v>
       </c>
       <c r="S16" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="Z16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AC16" t="s">
         <v>272</v>
@@ -3389,7 +4057,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3405,8 +4073,11 @@
       <c r="N17" t="s">
         <v>277</v>
       </c>
+      <c r="S17" t="s">
+        <v>270</v>
+      </c>
       <c r="Z17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AC17" t="s">
         <v>279</v>
@@ -3415,7 +4086,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3432,13 +4103,13 @@
         <v>284</v>
       </c>
       <c r="Z18" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AE18" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3452,13 +4123,13 @@
         <v>283</v>
       </c>
       <c r="Z19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AE19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3472,13 +4143,13 @@
         <v>289</v>
       </c>
       <c r="Z20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AE20" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3492,13 +4163,13 @@
         <v>294</v>
       </c>
       <c r="Z21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AE21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3512,13 +4183,13 @@
         <v>584</v>
       </c>
       <c r="Z22" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AE22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3532,13 +4203,13 @@
         <v>303</v>
       </c>
       <c r="Z23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AE23" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3552,13 +4223,13 @@
         <v>308</v>
       </c>
       <c r="Z24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AE24" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3572,13 +4243,13 @@
         <v>313</v>
       </c>
       <c r="Z25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AE25" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3592,13 +4263,13 @@
         <v>318</v>
       </c>
       <c r="Z26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AE26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3612,13 +4283,13 @@
         <v>323</v>
       </c>
       <c r="Z27" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AE27" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3632,10 +4303,10 @@
         <v>328</v>
       </c>
       <c r="Z28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3649,10 +4320,10 @@
         <v>333</v>
       </c>
       <c r="Z29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3666,10 +4337,10 @@
         <v>337</v>
       </c>
       <c r="Z30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3680,10 +4351,10 @@
         <v>343</v>
       </c>
       <c r="Z31" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="F32" t="s">
         <v>345</v>
       </c>
@@ -3691,10 +4362,10 @@
         <v>346</v>
       </c>
       <c r="Z32" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="6:26">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="F33" t="s">
         <v>348</v>
       </c>
@@ -3702,10 +4373,10 @@
         <v>349</v>
       </c>
       <c r="Z33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="6:26">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="F34" t="s">
         <v>351</v>
       </c>
@@ -3713,10 +4384,10 @@
         <v>352</v>
       </c>
       <c r="Z34" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="6:26">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="F35" t="s">
         <v>354</v>
       </c>
@@ -3724,10 +4395,10 @@
         <v>355</v>
       </c>
       <c r="Z35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="6:26">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="F36" t="s">
         <v>357</v>
       </c>
@@ -3735,10 +4406,10 @@
         <v>358</v>
       </c>
       <c r="Z36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="6:26">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="F37" t="s">
         <v>360</v>
       </c>
@@ -3746,10 +4417,10 @@
         <v>361</v>
       </c>
       <c r="Z37" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="6:26">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="F38" t="s">
         <v>363</v>
       </c>
@@ -3757,10 +4428,10 @@
         <v>364</v>
       </c>
       <c r="Z38" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="39" spans="6:26">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>366</v>
       </c>
@@ -3768,715 +4439,745 @@
         <v>367</v>
       </c>
       <c r="Z39" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="6:26">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="H40" t="s">
         <v>369</v>
       </c>
       <c r="Z40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="6:26">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="H41" t="s">
         <v>371</v>
       </c>
       <c r="Z41" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="6:26">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="H42" t="s">
         <v>373</v>
       </c>
       <c r="Z42" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="6:26">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="H43" t="s">
         <v>375</v>
       </c>
       <c r="Z43" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="6:26">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="H44" t="s">
         <v>377</v>
       </c>
       <c r="Z44" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="6:26">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="H45" t="s">
         <v>379</v>
       </c>
       <c r="Z45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="6:26">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="H46" t="s">
         <v>381</v>
       </c>
       <c r="Z46" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="47" spans="6:26">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="H47" t="s">
         <v>383</v>
       </c>
       <c r="Z47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="6:26">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="H48" t="s">
         <v>385</v>
       </c>
       <c r="Z48" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="8:26">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="H49" t="s">
         <v>387</v>
       </c>
       <c r="Z49" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="50" spans="8:26">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="H50" t="s">
         <v>389</v>
       </c>
       <c r="Z50" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="51" spans="8:26">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="H51" t="s">
         <v>391</v>
       </c>
       <c r="Z51" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="8:26">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="H52" t="s">
         <v>393</v>
       </c>
       <c r="Z52" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="53" spans="8:26">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="H53" t="s">
         <v>395</v>
       </c>
       <c r="Z53" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="54" spans="8:26">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="H54" t="s">
         <v>397</v>
       </c>
       <c r="Z54" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="H55" t="s">
         <v>399</v>
       </c>
       <c r="Z55" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="8:26">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="H56" t="s">
         <v>401</v>
       </c>
       <c r="Z56" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="57" spans="8:26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="H57" t="s">
         <v>403</v>
       </c>
       <c r="Z57" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="8:26">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="H58" t="s">
         <v>405</v>
       </c>
       <c r="Z58" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="8:26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="H59" t="s">
         <v>407</v>
       </c>
       <c r="Z59" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="60" spans="8:26">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="H60" t="s">
         <v>409</v>
       </c>
       <c r="Z60" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="61" spans="8:26">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="H61" t="s">
         <v>411</v>
       </c>
       <c r="Z61" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="8:26">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="H62" t="s">
         <v>413</v>
       </c>
       <c r="Z62" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63" spans="8:26">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="H63" t="s">
         <v>415</v>
       </c>
       <c r="Z63" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="64" spans="8:26">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="H64" t="s">
         <v>417</v>
       </c>
       <c r="Z64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="8:26">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="H65" t="s">
         <v>419</v>
       </c>
       <c r="Z65" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66" spans="8:26">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="H66" t="s">
         <v>421</v>
       </c>
       <c r="Z66" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="67" spans="8:26">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="H67" t="s">
         <v>423</v>
       </c>
       <c r="Z67" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="8:26">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="H68" t="s">
         <v>425</v>
       </c>
       <c r="Z68" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="69" spans="8:26">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="H69" t="s">
         <v>427</v>
       </c>
       <c r="Z69" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="70" spans="8:26">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="H70" t="s">
         <v>429</v>
       </c>
       <c r="Z70" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="8:26">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="H71" t="s">
         <v>431</v>
       </c>
       <c r="Z71" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="72" spans="8:26">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="H72" t="s">
         <v>433</v>
       </c>
       <c r="Z72" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="8:26">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="H73" t="s">
         <v>435</v>
       </c>
       <c r="Z73" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="8:26">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="H74" t="s">
         <v>437</v>
       </c>
       <c r="Z74" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="8:26">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="H75" t="s">
         <v>439</v>
       </c>
       <c r="Z75" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" spans="8:26">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="H76" t="s">
         <v>441</v>
       </c>
       <c r="Z76" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="77" spans="8:26">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="H77" t="s">
         <v>443</v>
       </c>
       <c r="Z77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="8:26">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="H78" t="s">
         <v>445</v>
       </c>
       <c r="Z78" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="8:26">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="H79" t="s">
         <v>447</v>
       </c>
       <c r="Z79" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="8:26">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>449</v>
       </c>
       <c r="Z80" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="8:26">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>451</v>
       </c>
       <c r="Z81" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="82" spans="8:26">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>453</v>
       </c>
       <c r="Z82" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="8:26">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>455</v>
       </c>
       <c r="Z83" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="84" spans="8:26">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>457</v>
       </c>
       <c r="Z84" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="85" spans="8:26">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>459</v>
       </c>
       <c r="Z85" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="86" spans="8:26">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>461</v>
       </c>
       <c r="Z86" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="87" spans="8:26">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>463</v>
       </c>
       <c r="Z87" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="8:26">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>465</v>
       </c>
       <c r="Z88" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="89" spans="8:26">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>467</v>
       </c>
       <c r="Z89" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>469</v>
       </c>
       <c r="Z90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>471</v>
       </c>
       <c r="Z91" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>473</v>
       </c>
       <c r="Z92" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>475</v>
       </c>
       <c r="Z93" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>477</v>
       </c>
       <c r="Z94" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>479</v>
       </c>
       <c r="Z95" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>481</v>
       </c>
       <c r="Z96" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>483</v>
       </c>
       <c r="Z97" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>485</v>
       </c>
       <c r="Z98" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="8:26">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="100" spans="8:26">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="101" spans="8:26">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="8:26">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="103" spans="8:26">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="104" spans="8:26">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="105" spans="8:26">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="106" spans="8:26">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="107" spans="8:26">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="108" spans="8:26">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="109" spans="8:26">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="110" spans="8:26">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="111" spans="8:26">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="112" spans="8:26">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="113" spans="26:26">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="114" spans="26:26">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="26:26">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="26:26">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="26:26">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Z120" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="118" spans="26:26">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="119" spans="26:26">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Z123" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="120" spans="26:26">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="121" spans="26:26">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="122" spans="26:26">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="26:26">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="124" spans="26:26">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="26:26">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Z130" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="126" spans="26:26">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="127" spans="26:26">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="128" spans="26:26">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="129" spans="26:26">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="26:26">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="131" spans="26:26">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="132" spans="26:26">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="133" spans="26:26">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="134" spans="26:26">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="135" spans="26:26">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="136" spans="26:26">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="137" spans="26:26">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="26:26">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>523</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="true" topLeftCell="E1" workbookViewId="0" zoomScaleNormal="80" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.25" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="59.375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="10" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="25.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="31.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="76.25" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="59.375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="28" t="s">
         <v>524</v>
       </c>
@@ -4507,7 +5208,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="32" t="s">
         <v>531</v>
       </c>
@@ -4528,7 +5229,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -4545,7 +5246,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="17.100000000000001" r="4" s="1" spans="1:15">
       <c r="A4" s="19" t="s">
         <v>533</v>
       </c>
@@ -4590,7 +5291,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="42" customHeight="1">
+    <row customHeight="1" ht="42" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
         <v>546</v>
       </c>
@@ -4619,7 +5320,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" ht="32.1" customHeight="1">
+    <row customHeight="1" ht="32.1" r="6" spans="1:15">
       <c r="A6" s="14" t="s">
         <v>550</v>
       </c>
@@ -4648,7 +5349,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="35.1" customHeight="1">
+    <row customHeight="1" ht="35.1" r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>554</v>
       </c>
@@ -4677,7 +5378,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="39.950000000000003" customHeight="1">
+    <row customHeight="1" ht="39.950000000000003" r="8" spans="1:15">
       <c r="A8" s="14" t="s">
         <v>558</v>
       </c>
@@ -4704,7 +5405,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="90">
+    <row ht="90" r="9" spans="1:15">
       <c r="A9" s="14" t="s">
         <v>561</v>
       </c>
@@ -4733,7 +5434,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="41.1" customHeight="1">
+    <row customHeight="1" ht="41.1" r="10" spans="1:15">
       <c r="A10" s="14" t="s">
         <v>565</v>
       </c>
@@ -4760,7 +5461,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15" ht="105">
+    <row ht="105" r="11" spans="1:15">
       <c r="A11" s="14" t="s">
         <v>568</v>
       </c>
@@ -4789,7 +5490,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15">
       <c r="A12" s="14" t="s">
         <v>571</v>
       </c>
@@ -4818,7 +5519,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="90">
+    <row ht="90" r="13" spans="1:15">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="20" t="s">
@@ -4843,7 +5544,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="20" t="s">
@@ -4868,7 +5569,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="20" t="s">
@@ -4893,7 +5594,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="20" t="s">
@@ -4918,7 +5619,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="20"/>
@@ -4935,7 +5636,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="20"/>
@@ -4952,7 +5653,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="20"/>
@@ -4969,7 +5670,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="20"/>
@@ -4986,7 +5687,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="20"/>
@@ -5003,7 +5704,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="20"/>
@@ -5020,7 +5721,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="20"/>
@@ -5037,7 +5738,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="20"/>
@@ -5054,7 +5755,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="14"/>
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
@@ -5071,7 +5772,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="20"/>
@@ -5088,7 +5789,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="20"/>
@@ -5105,7 +5806,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20"/>
@@ -5122,7 +5823,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="20"/>
@@ -5139,7 +5840,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="20"/>
@@ -5156,7 +5857,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="20"/>
@@ -5173,7 +5874,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="20"/>
@@ -5190,7 +5891,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="20"/>
@@ -5207,7 +5908,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="20"/>
@@ -5224,7 +5925,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="20"/>
@@ -5241,7 +5942,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="20"/>
@@ -5258,7 +5959,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="20"/>
@@ -5275,7 +5976,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="20"/>
@@ -5292,7 +5993,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="20"/>
@@ -5309,7 +6010,7 @@
       <c r="N39" s="18"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="20"/>
@@ -5326,7 +6027,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="20"/>
@@ -5343,7 +6044,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="20"/>
@@ -5360,7 +6061,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="20"/>
@@ -5377,7 +6078,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="20"/>
@@ -5394,7 +6095,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="20"/>
@@ -5411,7 +6112,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="20"/>
@@ -5428,7 +6129,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="20"/>
@@ -5445,7 +6146,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="20"/>
@@ -5462,7 +6163,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="20"/>
@@ -5479,7 +6180,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="20"/>
@@ -5496,7 +6197,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="17"/>
     </row>
-    <row r="51" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="20"/>
@@ -5513,7 +6214,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="20"/>
@@ -5530,7 +6231,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="17"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="20"/>
@@ -5547,7 +6248,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="20"/>
@@ -5564,7 +6265,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="20"/>
@@ -5581,7 +6282,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="20"/>
@@ -5598,7 +6299,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="20"/>
@@ -5615,7 +6316,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="20"/>
@@ -5632,7 +6333,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="20"/>
@@ -5649,7 +6350,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="20"/>
@@ -5666,7 +6367,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="20"/>
@@ -5683,7 +6384,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="20"/>
@@ -5700,7 +6401,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="20"/>
@@ -5717,7 +6418,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="20"/>
@@ -5734,7 +6435,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="20"/>
@@ -5751,7 +6452,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="20"/>
@@ -5768,7 +6469,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="20"/>
@@ -5785,7 +6486,7 @@
       <c r="N67" s="18"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="20"/>
@@ -5802,7 +6503,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="20"/>
@@ -5819,7 +6520,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="20"/>
@@ -5836,7 +6537,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="20"/>
@@ -5853,7 +6554,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="20"/>
@@ -5870,7 +6571,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="20"/>
@@ -5887,7 +6588,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="20"/>
@@ -5904,7 +6605,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="20"/>
@@ -5921,7 +6622,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="20"/>
@@ -5938,7 +6639,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="20"/>
@@ -5955,7 +6656,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="20"/>
@@ -5972,7 +6673,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="20"/>
@@ -5989,7 +6690,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="20"/>
@@ -6006,7 +6707,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="20"/>
@@ -6023,7 +6724,7 @@
       <c r="N81" s="18"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="20"/>
@@ -6040,7 +6741,7 @@
       <c r="N82" s="18"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="20"/>
@@ -6057,7 +6758,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="20"/>
@@ -6074,7 +6775,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="20"/>
@@ -6091,7 +6792,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="20"/>
@@ -6108,7 +6809,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="17"/>
     </row>
-    <row r="87" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="20"/>
@@ -6125,7 +6826,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="17"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="20"/>
@@ -6142,7 +6843,7 @@
       <c r="N88" s="18"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="20"/>
@@ -6159,7 +6860,7 @@
       <c r="N89" s="18"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="20"/>
@@ -6176,7 +6877,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="20"/>
@@ -6193,7 +6894,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="20"/>
@@ -6210,7 +6911,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="17"/>
     </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="20"/>
@@ -6227,7 +6928,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="17"/>
     </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="20"/>
@@ -6244,7 +6945,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="20"/>
@@ -6261,7 +6962,7 @@
       <c r="N95" s="18"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="20"/>
@@ -6278,7 +6979,7 @@
       <c r="N96" s="18"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="20"/>
@@ -6295,7 +6996,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="17"/>
     </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="20"/>
@@ -6312,7 +7013,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="17"/>
     </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="20"/>
@@ -6329,7 +7030,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="17"/>
     </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="20"/>
@@ -6346,7 +7047,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="17"/>
     </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="20"/>
@@ -6363,7 +7064,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="17"/>
     </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="20"/>
@@ -6380,7 +7081,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="20"/>
@@ -6397,7 +7098,7 @@
       <c r="N103" s="18"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="20"/>
@@ -6414,7 +7115,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="17"/>
     </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="20"/>
@@ -6431,7 +7132,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="17"/>
     </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="20"/>
@@ -6448,7 +7149,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="17"/>
     </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="20"/>
@@ -6465,7 +7166,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="17"/>
     </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="20"/>
@@ -6482,7 +7183,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="17"/>
     </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="20"/>
@@ -6499,7 +7200,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="20"/>
@@ -6516,7 +7217,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="20"/>
@@ -6533,7 +7234,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="17"/>
     </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="20"/>
@@ -6550,7 +7251,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="17"/>
     </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="20"/>
@@ -6567,7 +7268,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="17"/>
     </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="20"/>
@@ -6584,7 +7285,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="17"/>
     </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="20"/>
@@ -6601,7 +7302,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="17"/>
     </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="20"/>
@@ -6618,7 +7319,7 @@
       <c r="N116" s="18"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="20"/>
@@ -6635,7 +7336,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="20"/>
@@ -6652,7 +7353,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="17"/>
     </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="20"/>
@@ -6669,7 +7370,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="17"/>
     </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="20"/>
@@ -6686,7 +7387,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="17"/>
     </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="20"/>
@@ -6703,7 +7404,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="17"/>
     </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="20"/>
@@ -6720,7 +7421,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="17"/>
     </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="20"/>
@@ -6737,7 +7438,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="20"/>
@@ -6754,7 +7455,7 @@
       <c r="N124" s="18"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="20"/>
@@ -6771,7 +7472,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="17"/>
     </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="20"/>
@@ -6788,7 +7489,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="17"/>
     </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="20"/>
@@ -6805,7 +7506,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="17"/>
     </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="20"/>
@@ -6822,7 +7523,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="17"/>
     </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="20"/>
@@ -6839,7 +7540,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="17"/>
     </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="20"/>
@@ -6856,7 +7557,7 @@
       <c r="N130" s="18"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="20"/>
@@ -6873,7 +7574,7 @@
       <c r="N131" s="18"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="20"/>
@@ -6890,7 +7591,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="17"/>
     </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="20"/>
@@ -6907,7 +7608,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="17"/>
     </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="20"/>
@@ -6924,7 +7625,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="17"/>
     </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="20"/>
@@ -6941,7 +7642,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="17"/>
     </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="20"/>
@@ -6958,7 +7659,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="17"/>
     </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="20"/>
@@ -6975,7 +7676,7 @@
       <c r="N137" s="18"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="20"/>
@@ -6992,7 +7693,7 @@
       <c r="N138" s="18"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="20"/>
@@ -7009,7 +7710,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="17"/>
     </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="20"/>
@@ -7026,7 +7727,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="17"/>
     </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="20"/>
@@ -7043,7 +7744,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="17"/>
     </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="20"/>
@@ -7060,7 +7761,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="17"/>
     </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="20"/>
@@ -7077,7 +7778,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="17"/>
     </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="20"/>
@@ -7094,7 +7795,7 @@
       <c r="N144" s="18"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="20"/>
@@ -7111,7 +7812,7 @@
       <c r="N145" s="18"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="20"/>
@@ -7128,7 +7829,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="17"/>
     </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="20"/>
@@ -7145,7 +7846,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="17"/>
     </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="20"/>
@@ -7162,7 +7863,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="17"/>
     </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="20"/>
@@ -7179,7 +7880,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="17"/>
     </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="20"/>
@@ -7196,7 +7897,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="17"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="20"/>
@@ -7213,7 +7914,7 @@
       <c r="N151" s="18"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="20"/>
@@ -7230,7 +7931,7 @@
       <c r="N152" s="18"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="20"/>
@@ -7247,7 +7948,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="17"/>
     </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="20"/>
@@ -7264,7 +7965,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="17"/>
     </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="20"/>
@@ -7281,7 +7982,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="17"/>
     </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="20"/>
@@ -7298,7 +7999,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="17"/>
     </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="20"/>
@@ -7315,7 +8016,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="17"/>
     </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="20"/>
@@ -7332,7 +8033,7 @@
       <c r="N158" s="18"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="20"/>
@@ -7349,7 +8050,7 @@
       <c r="N159" s="18"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="20"/>
@@ -7366,7 +8067,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="17"/>
     </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="20"/>
@@ -7383,7 +8084,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="17"/>
     </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="20"/>
@@ -7400,7 +8101,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="17"/>
     </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="20"/>
@@ -7417,7 +8118,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="17"/>
     </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="20"/>
@@ -7434,7 +8135,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="17"/>
     </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="20"/>
@@ -7451,7 +8152,7 @@
       <c r="N165" s="18"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="20"/>
@@ -7468,7 +8169,7 @@
       <c r="N166" s="18"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="20"/>
@@ -7485,7 +8186,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="17"/>
     </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="20"/>
@@ -7502,7 +8203,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="17"/>
     </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="20"/>
@@ -7519,7 +8220,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="17"/>
     </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="20"/>
@@ -7536,7 +8237,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="17"/>
     </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="20"/>
@@ -7553,7 +8254,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="17"/>
     </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="20"/>
@@ -7570,7 +8271,7 @@
       <c r="N172" s="18"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="20"/>
@@ -7587,7 +8288,7 @@
       <c r="N173" s="18"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="20"/>
@@ -7604,7 +8305,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="17"/>
     </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="20"/>
@@ -7621,7 +8322,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="17"/>
     </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="20"/>
@@ -7638,7 +8339,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="17"/>
     </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="20"/>
@@ -7655,7 +8356,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="17"/>
     </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="20"/>
@@ -7672,7 +8373,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="17"/>
     </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="20"/>
@@ -7689,7 +8390,7 @@
       <c r="N179" s="18"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="20"/>
@@ -7706,7 +8407,7 @@
       <c r="N180" s="18"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="20"/>
@@ -7723,7 +8424,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="17"/>
     </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="20"/>
@@ -7740,7 +8441,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="17"/>
     </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="20"/>
@@ -7757,7 +8458,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="17"/>
     </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="20"/>
@@ -7774,7 +8475,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="17"/>
     </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="20"/>
@@ -7791,7 +8492,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="17"/>
     </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="20"/>
@@ -7808,7 +8509,7 @@
       <c r="N186" s="18"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="20"/>
@@ -7825,7 +8526,7 @@
       <c r="N187" s="18"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="20"/>
@@ -7842,7 +8543,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="17"/>
     </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="20"/>
@@ -7859,7 +8560,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="17"/>
     </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="20"/>
@@ -7876,7 +8577,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="17"/>
     </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="20"/>
@@ -7893,7 +8594,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="17"/>
     </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="20"/>
@@ -7910,7 +8611,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="17"/>
     </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="20"/>
@@ -7927,7 +8628,7 @@
       <c r="N193" s="18"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="20"/>
@@ -7944,7 +8645,7 @@
       <c r="N194" s="18"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="20"/>
@@ -7961,7 +8662,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="17"/>
     </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="20"/>
@@ -7978,7 +8679,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="17"/>
     </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="20"/>
@@ -7995,7 +8696,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="17"/>
     </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="20"/>
@@ -8012,7 +8713,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="17"/>
     </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="20"/>
@@ -8029,7 +8730,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="17"/>
     </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="20"/>
@@ -8046,7 +8747,7 @@
       <c r="N200" s="18"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="20"/>
@@ -8063,7 +8764,7 @@
       <c r="N201" s="18"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15">
       <c r="A202" s="14"/>
       <c r="B202" s="15"/>
       <c r="C202" s="20"/>
@@ -8080,7 +8781,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="17"/>
     </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15">
       <c r="A203" s="14"/>
       <c r="B203" s="15"/>
       <c r="C203" s="20"/>
@@ -8097,7 +8798,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="17"/>
     </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15">
       <c r="A204" s="14"/>
       <c r="B204" s="15"/>
       <c r="C204" s="20"/>
@@ -8114,7 +8815,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="17"/>
     </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15">
       <c r="A205" s="14"/>
       <c r="B205" s="15"/>
       <c r="C205" s="20"/>
@@ -8131,7 +8832,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="17"/>
     </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15">
       <c r="A206" s="14"/>
       <c r="B206" s="15"/>
       <c r="C206" s="20"/>
@@ -8148,7 +8849,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="17"/>
     </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15">
       <c r="A207" s="14"/>
       <c r="B207" s="15"/>
       <c r="C207" s="20"/>
@@ -8165,7 +8866,7 @@
       <c r="N207" s="18"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15">
       <c r="A208" s="14"/>
       <c r="B208" s="15"/>
       <c r="C208" s="20"/>
@@ -8182,7 +8883,7 @@
       <c r="N208" s="18"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15">
       <c r="A209" s="14"/>
       <c r="B209" s="15"/>
       <c r="C209" s="20"/>
@@ -8199,7 +8900,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="17"/>
     </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15">
       <c r="A210" s="14"/>
       <c r="B210" s="15"/>
       <c r="C210" s="20"/>
@@ -8216,7 +8917,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="17"/>
     </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15">
       <c r="A211" s="14"/>
       <c r="B211" s="15"/>
       <c r="C211" s="20"/>
@@ -8233,7 +8934,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="17"/>
     </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15">
       <c r="A212" s="14"/>
       <c r="B212" s="15"/>
       <c r="C212" s="20"/>
@@ -8250,7 +8951,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="17"/>
     </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15">
       <c r="A213" s="14"/>
       <c r="B213" s="15"/>
       <c r="C213" s="20"/>
@@ -8267,7 +8968,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="17"/>
     </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15">
       <c r="A214" s="14"/>
       <c r="B214" s="15"/>
       <c r="C214" s="20"/>
@@ -8284,7 +8985,7 @@
       <c r="N214" s="18"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15">
       <c r="A215" s="14"/>
       <c r="B215" s="15"/>
       <c r="C215" s="20"/>
@@ -8301,7 +9002,7 @@
       <c r="N215" s="18"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15">
       <c r="A216" s="14"/>
       <c r="B216" s="15"/>
       <c r="C216" s="20"/>
@@ -8318,7 +9019,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="17"/>
     </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15">
       <c r="A217" s="14"/>
       <c r="B217" s="15"/>
       <c r="C217" s="20"/>
@@ -8335,7 +9036,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="17"/>
     </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15">
       <c r="A218" s="14"/>
       <c r="B218" s="15"/>
       <c r="C218" s="20"/>
@@ -8352,7 +9053,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="17"/>
     </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15">
       <c r="A219" s="14"/>
       <c r="B219" s="15"/>
       <c r="C219" s="20"/>
@@ -8369,7 +9070,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="17"/>
     </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15">
       <c r="A220" s="14"/>
       <c r="B220" s="15"/>
       <c r="C220" s="20"/>
@@ -8386,7 +9087,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="17"/>
     </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15">
       <c r="A221" s="14"/>
       <c r="B221" s="15"/>
       <c r="C221" s="20"/>
@@ -8403,7 +9104,7 @@
       <c r="N221" s="18"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15">
       <c r="A222" s="14"/>
       <c r="B222" s="15"/>
       <c r="C222" s="20"/>
@@ -8420,7 +9121,7 @@
       <c r="N222" s="18"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15">
       <c r="A223" s="14"/>
       <c r="B223" s="15"/>
       <c r="C223" s="20"/>
@@ -8437,7 +9138,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="17"/>
     </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15">
       <c r="A224" s="14"/>
       <c r="B224" s="15"/>
       <c r="C224" s="20"/>
@@ -8454,7 +9155,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="17"/>
     </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15">
       <c r="A225" s="14"/>
       <c r="B225" s="15"/>
       <c r="C225" s="20"/>
@@ -8471,7 +9172,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="17"/>
     </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15">
       <c r="A226" s="14"/>
       <c r="B226" s="15"/>
       <c r="C226" s="20"/>
@@ -8488,7 +9189,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="17"/>
     </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15">
       <c r="A227" s="14"/>
       <c r="B227" s="15"/>
       <c r="C227" s="20"/>
@@ -8505,7 +9206,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="17"/>
     </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15">
       <c r="A228" s="14"/>
       <c r="B228" s="15"/>
       <c r="C228" s="20"/>
@@ -8522,7 +9223,7 @@
       <c r="N228" s="18"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15">
       <c r="A229" s="14"/>
       <c r="B229" s="15"/>
       <c r="C229" s="20"/>
@@ -8539,7 +9240,7 @@
       <c r="N229" s="18"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15">
       <c r="A230" s="14"/>
       <c r="B230" s="15"/>
       <c r="C230" s="20"/>
@@ -8556,7 +9257,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="17"/>
     </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15">
       <c r="A231" s="14"/>
       <c r="B231" s="15"/>
       <c r="C231" s="20"/>
@@ -8573,7 +9274,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="17"/>
     </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15">
       <c r="A232" s="14"/>
       <c r="B232" s="15"/>
       <c r="C232" s="20"/>
@@ -8590,7 +9291,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="17"/>
     </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15">
       <c r="A233" s="14"/>
       <c r="B233" s="15"/>
       <c r="C233" s="20"/>
@@ -8607,7 +9308,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="17"/>
     </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15">
       <c r="A234" s="14"/>
       <c r="B234" s="15"/>
       <c r="C234" s="20"/>
@@ -8624,7 +9325,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="17"/>
     </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15">
       <c r="A235" s="14"/>
       <c r="B235" s="15"/>
       <c r="C235" s="20"/>
@@ -8641,7 +9342,7 @@
       <c r="N235" s="18"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15">
       <c r="A236" s="14"/>
       <c r="B236" s="15"/>
       <c r="C236" s="20"/>
@@ -8658,7 +9359,7 @@
       <c r="N236" s="18"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15">
       <c r="A237" s="14"/>
       <c r="B237" s="15"/>
       <c r="C237" s="20"/>
@@ -8675,7 +9376,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="17"/>
     </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15">
       <c r="A238" s="14"/>
       <c r="B238" s="15"/>
       <c r="C238" s="20"/>
@@ -8692,7 +9393,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="17"/>
     </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15">
       <c r="A239" s="14"/>
       <c r="B239" s="15"/>
       <c r="C239" s="20"/>
@@ -8709,7 +9410,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="17"/>
     </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15">
       <c r="A240" s="14"/>
       <c r="B240" s="15"/>
       <c r="C240" s="20"/>
@@ -8726,7 +9427,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="17"/>
     </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15">
       <c r="A241" s="14"/>
       <c r="B241" s="15"/>
       <c r="C241" s="20"/>
@@ -8743,7 +9444,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="17"/>
     </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15">
       <c r="A242" s="14"/>
       <c r="B242" s="15"/>
       <c r="C242" s="20"/>
@@ -8760,7 +9461,7 @@
       <c r="N242" s="18"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15">
       <c r="A243" s="14"/>
       <c r="B243" s="15"/>
       <c r="C243" s="20"/>
@@ -8777,7 +9478,7 @@
       <c r="N243" s="18"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15">
       <c r="A244" s="14"/>
       <c r="B244" s="15"/>
       <c r="C244" s="20"/>
@@ -8794,7 +9495,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="17"/>
     </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15">
       <c r="A245" s="14"/>
       <c r="B245" s="15"/>
       <c r="C245" s="20"/>
@@ -8811,7 +9512,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="17"/>
     </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15">
       <c r="A246" s="14"/>
       <c r="B246" s="15"/>
       <c r="C246" s="20"/>
@@ -8828,7 +9529,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="17"/>
     </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15">
       <c r="A247" s="14"/>
       <c r="B247" s="15"/>
       <c r="C247" s="20"/>
@@ -8845,7 +9546,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="17"/>
     </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15">
       <c r="A248" s="14"/>
       <c r="B248" s="15"/>
       <c r="C248" s="20"/>
@@ -8862,7 +9563,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="17"/>
     </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15">
       <c r="A249" s="14"/>
       <c r="B249" s="15"/>
       <c r="C249" s="20"/>
@@ -8879,7 +9580,7 @@
       <c r="N249" s="18"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15">
       <c r="A250" s="14"/>
       <c r="B250" s="15"/>
       <c r="C250" s="20"/>
@@ -8896,7 +9597,7 @@
       <c r="N250" s="18"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15">
       <c r="A251" s="14"/>
       <c r="B251" s="15"/>
       <c r="C251" s="20"/>
@@ -8913,7 +9614,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="17"/>
     </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15">
       <c r="A252" s="14"/>
       <c r="B252" s="15"/>
       <c r="C252" s="20"/>
@@ -8930,7 +9631,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="17"/>
     </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15">
       <c r="A253" s="14"/>
       <c r="B253" s="15"/>
       <c r="C253" s="20"/>
@@ -8947,7 +9648,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="17"/>
     </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15">
       <c r="A254" s="14"/>
       <c r="B254" s="15"/>
       <c r="C254" s="20"/>
@@ -8964,7 +9665,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="17"/>
     </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15">
       <c r="A255" s="14"/>
       <c r="B255" s="15"/>
       <c r="C255" s="20"/>
@@ -8981,7 +9682,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="17"/>
     </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15">
       <c r="A256" s="14"/>
       <c r="B256" s="15"/>
       <c r="C256" s="20"/>
@@ -8998,7 +9699,7 @@
       <c r="N256" s="18"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15">
       <c r="A257" s="14"/>
       <c r="B257" s="15"/>
       <c r="C257" s="20"/>
@@ -9015,7 +9716,7 @@
       <c r="N257" s="18"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15">
       <c r="A258" s="14"/>
       <c r="B258" s="15"/>
       <c r="C258" s="20"/>
@@ -9032,7 +9733,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="17"/>
     </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15">
       <c r="A259" s="14"/>
       <c r="B259" s="15"/>
       <c r="C259" s="20"/>
@@ -9049,7 +9750,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="17"/>
     </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15">
       <c r="A260" s="14"/>
       <c r="B260" s="15"/>
       <c r="C260" s="20"/>
@@ -9066,7 +9767,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="17"/>
     </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15">
       <c r="A261" s="14"/>
       <c r="B261" s="15"/>
       <c r="C261" s="20"/>
@@ -9083,7 +9784,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="17"/>
     </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15">
       <c r="A262" s="14"/>
       <c r="B262" s="15"/>
       <c r="C262" s="20"/>
@@ -9100,7 +9801,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="17"/>
     </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15">
       <c r="A263" s="14"/>
       <c r="B263" s="15"/>
       <c r="C263" s="20"/>
@@ -9117,7 +9818,7 @@
       <c r="N263" s="18"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15">
       <c r="A264" s="14"/>
       <c r="B264" s="15"/>
       <c r="C264" s="20"/>
@@ -9134,7 +9835,7 @@
       <c r="N264" s="18"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15">
       <c r="A265" s="14"/>
       <c r="B265" s="15"/>
       <c r="C265" s="20"/>
@@ -9151,7 +9852,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="17"/>
     </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15">
       <c r="A266" s="14"/>
       <c r="B266" s="15"/>
       <c r="C266" s="20"/>
@@ -9168,7 +9869,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="17"/>
     </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15">
       <c r="A267" s="14"/>
       <c r="B267" s="15"/>
       <c r="C267" s="20"/>
@@ -9185,7 +9886,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="17"/>
     </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15">
       <c r="A268" s="14"/>
       <c r="B268" s="15"/>
       <c r="C268" s="20"/>
@@ -9202,7 +9903,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="17"/>
     </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15">
       <c r="A269" s="14"/>
       <c r="B269" s="15"/>
       <c r="C269" s="20"/>
@@ -9219,7 +9920,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="17"/>
     </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15">
       <c r="A270" s="14"/>
       <c r="B270" s="15"/>
       <c r="C270" s="20"/>
@@ -9236,7 +9937,7 @@
       <c r="N270" s="18"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15">
       <c r="A271" s="14"/>
       <c r="B271" s="15"/>
       <c r="C271" s="20"/>
@@ -9253,7 +9954,7 @@
       <c r="N271" s="18"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15">
       <c r="A272" s="14"/>
       <c r="B272" s="15"/>
       <c r="C272" s="20"/>
@@ -9270,7 +9971,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="17"/>
     </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15">
       <c r="A273" s="14"/>
       <c r="B273" s="15"/>
       <c r="C273" s="20"/>
@@ -9287,7 +9988,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="17"/>
     </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15">
       <c r="A274" s="14"/>
       <c r="B274" s="15"/>
       <c r="C274" s="20"/>
@@ -9304,7 +10005,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="17"/>
     </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15">
       <c r="A275" s="14"/>
       <c r="B275" s="15"/>
       <c r="C275" s="20"/>
@@ -9321,7 +10022,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="17"/>
     </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15">
       <c r="A276" s="14"/>
       <c r="B276" s="15"/>
       <c r="C276" s="20"/>
@@ -9338,7 +10039,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="17"/>
     </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15">
       <c r="A277" s="14"/>
       <c r="B277" s="15"/>
       <c r="C277" s="20"/>
@@ -9355,7 +10056,7 @@
       <c r="N277" s="18"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15">
       <c r="A278" s="14"/>
       <c r="B278" s="15"/>
       <c r="C278" s="20"/>
@@ -9372,7 +10073,7 @@
       <c r="N278" s="18"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15">
       <c r="A279" s="14"/>
       <c r="B279" s="15"/>
       <c r="C279" s="20"/>
@@ -9389,7 +10090,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="17"/>
     </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15">
       <c r="A280" s="14"/>
       <c r="B280" s="15"/>
       <c r="C280" s="20"/>
@@ -9406,7 +10107,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="17"/>
     </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15">
       <c r="A281" s="14"/>
       <c r="B281" s="15"/>
       <c r="C281" s="20"/>
@@ -9423,7 +10124,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="17"/>
     </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15">
       <c r="A282" s="14"/>
       <c r="B282" s="15"/>
       <c r="C282" s="20"/>
@@ -9440,7 +10141,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="17"/>
     </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15">
       <c r="A283" s="14"/>
       <c r="B283" s="15"/>
       <c r="C283" s="20"/>
@@ -9457,7 +10158,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="17"/>
     </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15">
       <c r="A284" s="14"/>
       <c r="B284" s="15"/>
       <c r="C284" s="20"/>
@@ -9474,7 +10175,7 @@
       <c r="N284" s="18"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15">
       <c r="A285" s="14"/>
       <c r="B285" s="15"/>
       <c r="C285" s="20"/>
@@ -9491,7 +10192,7 @@
       <c r="N285" s="18"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15">
       <c r="A286" s="14"/>
       <c r="B286" s="15"/>
       <c r="C286" s="20"/>
@@ -9508,7 +10209,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="17"/>
     </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15">
       <c r="A287" s="14"/>
       <c r="B287" s="15"/>
       <c r="C287" s="20"/>
@@ -9525,7 +10226,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="17"/>
     </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15">
       <c r="A288" s="14"/>
       <c r="B288" s="15"/>
       <c r="C288" s="20"/>
@@ -9542,7 +10243,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="17"/>
     </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15">
       <c r="A289" s="14"/>
       <c r="B289" s="15"/>
       <c r="C289" s="20"/>
@@ -9559,7 +10260,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="17"/>
     </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15">
       <c r="A290" s="14"/>
       <c r="B290" s="15"/>
       <c r="C290" s="20"/>
@@ -9576,7 +10277,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="17"/>
     </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
       <c r="C291" s="20"/>
@@ -9593,7 +10294,7 @@
       <c r="N291" s="18"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15">
       <c r="A292" s="14"/>
       <c r="B292" s="15"/>
       <c r="C292" s="20"/>
@@ -9610,7 +10311,7 @@
       <c r="N292" s="18"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15">
       <c r="A293" s="14"/>
       <c r="B293" s="15"/>
       <c r="C293" s="20"/>
@@ -9627,7 +10328,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="17"/>
     </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15">
       <c r="A294" s="14"/>
       <c r="B294" s="15"/>
       <c r="C294" s="20"/>
@@ -9644,7 +10345,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="17"/>
     </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15">
       <c r="A295" s="14"/>
       <c r="B295" s="15"/>
       <c r="C295" s="20"/>
@@ -9661,7 +10362,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="17"/>
     </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15">
       <c r="A296" s="14"/>
       <c r="B296" s="15"/>
       <c r="C296" s="20"/>
@@ -9678,7 +10379,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="17"/>
     </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15">
       <c r="A297" s="14"/>
       <c r="B297" s="15"/>
       <c r="C297" s="20"/>
@@ -9696,7 +10397,7 @@
       <c r="O297" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9704,35 +10405,35 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N98:N297">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N97 N298:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C13 C14:C297" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C6 C7:C13 C14:C297" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7:D13 D14:D297" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7:D13 D14:D297" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="603">
   <si>
     <t>target</t>
   </si>
@@ -1887,13 +1887,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2056,8 +2062,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2229,8 +2336,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2594,12 +2854,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2724,52 +3310,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="11" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="12" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3119,7 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3811,7 +4445,7 @@
         <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="L10" t="s">
         <v>194</v>
@@ -3855,7 +4489,7 @@
         <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>602</v>
       </c>
       <c r="L11" t="s">
         <v>206</v>
@@ -3893,7 +4527,7 @@
         <v>227</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L12" t="s">
         <v>218</v>
@@ -3931,7 +4565,7 @@
         <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L13" t="s">
         <v>229</v>
@@ -3966,7 +4600,7 @@
         <v>247</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L14" t="s">
         <v>239</v>
@@ -4001,7 +4635,7 @@
         <v>257</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L15" t="s">
         <v>249</v>
@@ -4034,6 +4668,9 @@
       </c>
       <c r="H16" t="s">
         <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>248</v>
       </c>
       <c r="L16" t="s">
         <v>258</v>
@@ -5153,7 +5790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P297"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="E1" workbookViewId="0" zoomScaleNormal="80" zoomScale="100">
+    <sheetView tabSelected="true" topLeftCell="E1" workbookViewId="0" zoomScale="100" zoomScaleNormal="80">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -46,21 +46,22 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="612">
   <si>
     <t>target</t>
   </si>
@@ -1893,13 +1894,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="41">
+  <fonts count="73">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2163,8 +2191,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2489,8 +2719,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3180,12 +3716,664 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3358,52 +4546,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3751,7 +5035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3839,21 +5123,24 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3889,7 +5176,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>610</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -3934,21 +5221,24 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4020,21 +5310,24 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4103,21 +5396,24 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA4" t="s">
         <v>585</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>108</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>110</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4177,21 +5473,24 @@
         <v>128</v>
       </c>
       <c r="Z5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA5" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>130</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>599</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4221,7 +5520,7 @@
         <v>582</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>611</v>
       </c>
       <c r="L6" t="s">
         <v>120</v>
@@ -4248,21 +5547,24 @@
         <v>148</v>
       </c>
       <c r="Z6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA6" t="s">
         <v>149</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>150</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>131</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>152</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>153</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4283,7 +5585,7 @@
         <v>158</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -4309,22 +5611,22 @@
       <c r="X7" t="s">
         <v>166</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>167</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>168</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>151</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>170</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>171</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4344,6 +5646,9 @@
       <c r="I8" t="s">
         <v>176</v>
       </c>
+      <c r="K8" t="s">
+        <v>159</v>
+      </c>
       <c r="L8" t="s">
         <v>160</v>
       </c>
@@ -4365,22 +5670,22 @@
       <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>169</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>187</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4421,16 +5726,16 @@
       <c r="X9" t="s">
         <v>200</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>201</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>186</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>202</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4465,16 +5770,16 @@
       <c r="U10" t="s">
         <v>211</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>212</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>600</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>213</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4506,13 +5811,13 @@
       <c r="S11" t="s">
         <v>222</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>223</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>224</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4544,13 +5849,13 @@
       <c r="S12" t="s">
         <v>233</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>234</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4579,13 +5884,13 @@
       <c r="S13" t="s">
         <v>592</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>243</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>244</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4614,13 +5919,13 @@
       <c r="S14" t="s">
         <v>242</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>253</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>254</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4649,13 +5954,13 @@
       <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>593</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>263</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4684,13 +5989,13 @@
       <c r="S16" t="s">
         <v>261</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>262</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>272</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4713,13 +6018,13 @@
       <c r="S17" t="s">
         <v>270</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>271</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>279</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4739,10 +6044,10 @@
       <c r="N18" t="s">
         <v>284</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>278</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4759,10 +6064,10 @@
       <c r="L19" t="s">
         <v>283</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>285</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4779,10 +6084,10 @@
       <c r="L20" t="s">
         <v>289</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>290</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4799,10 +6104,10 @@
       <c r="L21" t="s">
         <v>294</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>295</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4819,10 +6124,10 @@
       <c r="L22" t="s">
         <v>584</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>299</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4839,10 +6144,10 @@
       <c r="L23" t="s">
         <v>303</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>304</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4859,10 +6164,10 @@
       <c r="L24" t="s">
         <v>308</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>309</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4879,16 +6184,16 @@
       <c r="L25" t="s">
         <v>313</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>314</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>603</v>
       </c>
       <c r="F26" t="s">
         <v>321</v>
@@ -4899,16 +6204,16 @@
       <c r="L26" t="s">
         <v>318</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>319</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>326</v>
@@ -4919,16 +6224,16 @@
       <c r="L27" t="s">
         <v>323</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>324</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>331</v>
@@ -4939,13 +6244,13 @@
       <c r="L28" t="s">
         <v>328</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>335</v>
@@ -4956,13 +6261,13 @@
       <c r="L29" t="s">
         <v>333</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>339</v>
@@ -4973,13 +6278,13 @@
       <c r="L30" t="s">
         <v>337</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>342</v>
@@ -4987,18 +6292,21 @@
       <c r="H31" t="s">
         <v>343</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s">
         <v>345</v>
       </c>
       <c r="H32" t="s">
         <v>346</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5009,7 +6317,7 @@
       <c r="H33" t="s">
         <v>349</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5020,7 +6328,7 @@
       <c r="H34" t="s">
         <v>352</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5031,7 +6339,7 @@
       <c r="H35" t="s">
         <v>355</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5042,7 +6350,7 @@
       <c r="H36" t="s">
         <v>358</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5053,7 +6361,7 @@
       <c r="H37" t="s">
         <v>361</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5064,7 +6372,7 @@
       <c r="H38" t="s">
         <v>364</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5075,7 +6383,7 @@
       <c r="H39" t="s">
         <v>367</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5083,7 +6391,7 @@
       <c r="H40" t="s">
         <v>369</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5091,7 +6399,7 @@
       <c r="H41" t="s">
         <v>371</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5099,7 +6407,7 @@
       <c r="H42" t="s">
         <v>373</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5107,7 +6415,7 @@
       <c r="H43" t="s">
         <v>375</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5115,7 +6423,7 @@
       <c r="H44" t="s">
         <v>377</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5123,7 +6431,7 @@
       <c r="H45" t="s">
         <v>379</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5131,7 +6439,7 @@
       <c r="H46" t="s">
         <v>381</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5139,7 +6447,7 @@
       <c r="H47" t="s">
         <v>383</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5147,7 +6455,7 @@
       <c r="H48" t="s">
         <v>385</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5155,7 +6463,7 @@
       <c r="H49" t="s">
         <v>387</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5163,7 +6471,7 @@
       <c r="H50" t="s">
         <v>389</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5171,7 +6479,7 @@
       <c r="H51" t="s">
         <v>391</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5179,7 +6487,7 @@
       <c r="H52" t="s">
         <v>393</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5187,7 +6495,7 @@
       <c r="H53" t="s">
         <v>395</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5195,7 +6503,7 @@
       <c r="H54" t="s">
         <v>397</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5203,7 +6511,7 @@
       <c r="H55" t="s">
         <v>399</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5211,7 +6519,7 @@
       <c r="H56" t="s">
         <v>401</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5219,7 +6527,7 @@
       <c r="H57" t="s">
         <v>403</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5227,7 +6535,7 @@
       <c r="H58" t="s">
         <v>405</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5235,7 +6543,7 @@
       <c r="H59" t="s">
         <v>407</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5243,7 +6551,7 @@
       <c r="H60" t="s">
         <v>409</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5251,7 +6559,7 @@
       <c r="H61" t="s">
         <v>411</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5259,7 +6567,7 @@
       <c r="H62" t="s">
         <v>413</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5267,7 +6575,7 @@
       <c r="H63" t="s">
         <v>415</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5275,7 +6583,7 @@
       <c r="H64" t="s">
         <v>417</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5283,7 +6591,7 @@
       <c r="H65" t="s">
         <v>419</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5291,7 +6599,7 @@
       <c r="H66" t="s">
         <v>421</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5299,7 +6607,7 @@
       <c r="H67" t="s">
         <v>423</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5307,7 +6615,7 @@
       <c r="H68" t="s">
         <v>425</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5315,7 +6623,7 @@
       <c r="H69" t="s">
         <v>427</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5323,7 +6631,7 @@
       <c r="H70" t="s">
         <v>429</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5331,7 +6639,7 @@
       <c r="H71" t="s">
         <v>431</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5339,7 +6647,7 @@
       <c r="H72" t="s">
         <v>433</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5347,7 +6655,7 @@
       <c r="H73" t="s">
         <v>435</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5355,7 +6663,7 @@
       <c r="H74" t="s">
         <v>437</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5363,7 +6671,7 @@
       <c r="H75" t="s">
         <v>439</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5371,7 +6679,7 @@
       <c r="H76" t="s">
         <v>441</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5379,7 +6687,7 @@
       <c r="H77" t="s">
         <v>443</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5387,7 +6695,7 @@
       <c r="H78" t="s">
         <v>445</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5395,7 +6703,7 @@
       <c r="H79" t="s">
         <v>447</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5403,7 +6711,7 @@
       <c r="H80" t="s">
         <v>449</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5411,7 +6719,7 @@
       <c r="H81" t="s">
         <v>451</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5419,7 +6727,7 @@
       <c r="H82" t="s">
         <v>453</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5427,7 +6735,7 @@
       <c r="H83" t="s">
         <v>455</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5435,7 +6743,7 @@
       <c r="H84" t="s">
         <v>457</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5443,7 +6751,7 @@
       <c r="H85" t="s">
         <v>459</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5451,7 +6759,7 @@
       <c r="H86" t="s">
         <v>461</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5459,7 +6767,7 @@
       <c r="H87" t="s">
         <v>463</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5467,7 +6775,7 @@
       <c r="H88" t="s">
         <v>465</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5475,7 +6783,7 @@
       <c r="H89" t="s">
         <v>467</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5483,7 +6791,7 @@
       <c r="H90" t="s">
         <v>469</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>586</v>
       </c>
     </row>
@@ -5491,7 +6799,7 @@
       <c r="H91" t="s">
         <v>471</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5499,7 +6807,7 @@
       <c r="H92" t="s">
         <v>473</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5507,7 +6815,7 @@
       <c r="H93" t="s">
         <v>475</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5515,7 +6823,7 @@
       <c r="H94" t="s">
         <v>477</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5523,7 +6831,7 @@
       <c r="H95" t="s">
         <v>479</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5531,7 +6839,7 @@
       <c r="H96" t="s">
         <v>481</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5539,7 +6847,7 @@
       <c r="H97" t="s">
         <v>483</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5547,237 +6855,237 @@
       <c r="H98" t="s">
         <v>485</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>523</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -32,7 +32,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -40,7 +40,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -48,20 +48,21 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="622">
   <si>
     <t>target</t>
   </si>
@@ -1921,13 +1922,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="73">
+  <fonts count="89">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2393,8 +2424,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3025,8 +3157,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4368,12 +4653,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4642,52 +5253,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5035,7 +5694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5123,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -5203,7 +5862,7 @@
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>614</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
@@ -5221,7 +5880,7 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="AA2" t="s">
         <v>55</v>
@@ -5295,7 +5954,7 @@
         <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>615</v>
       </c>
       <c r="U3" t="s">
         <v>78</v>
@@ -5310,7 +5969,7 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="AA3" t="s">
         <v>82</v>
@@ -5381,7 +6040,7 @@
         <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
         <v>104</v>
@@ -5396,7 +6055,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="AA4" t="s">
         <v>585</v>
@@ -5461,7 +6120,7 @@
         <v>124</v>
       </c>
       <c r="T5" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>126</v>
@@ -5471,9 +6130,6 @@
       </c>
       <c r="X5" t="s">
         <v>128</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>608</v>
       </c>
       <c r="AA5" t="s">
         <v>129</v>
@@ -5538,16 +6194,13 @@
         <v>145</v>
       </c>
       <c r="T6" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
         <v>147</v>
       </c>
       <c r="X6" t="s">
         <v>148</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>609</v>
       </c>
       <c r="AA6" t="s">
         <v>149</v>
@@ -5603,7 +6256,7 @@
         <v>163</v>
       </c>
       <c r="T7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="U7" t="s">
         <v>165</v>
@@ -5664,6 +6317,9 @@
       <c r="S8" t="s">
         <v>181</v>
       </c>
+      <c r="T8" t="s">
+        <v>146</v>
+      </c>
       <c r="U8" t="s">
         <v>182</v>
       </c>
@@ -5720,6 +6376,9 @@
       <c r="S9" t="s">
         <v>198</v>
       </c>
+      <c r="T9" t="s">
+        <v>164</v>
+      </c>
       <c r="U9" t="s">
         <v>199</v>
       </c>
@@ -5841,7 +6500,7 @@
         <v>230</v>
       </c>
       <c r="O12" t="s">
-        <v>231</v>
+        <v>613</v>
       </c>
       <c r="R12" t="s">
         <v>232</v>
@@ -5878,6 +6537,9 @@
       <c r="N13" t="s">
         <v>240</v>
       </c>
+      <c r="O13" t="s">
+        <v>231</v>
+      </c>
       <c r="R13" t="s">
         <v>241</v>
       </c>
@@ -5955,7 +6617,7 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="AD15" t="s">
         <v>263</v>
@@ -5990,7 +6652,7 @@
         <v>261</v>
       </c>
       <c r="AA16" t="s">
-        <v>262</v>
+        <v>593</v>
       </c>
       <c r="AD16" t="s">
         <v>272</v>
@@ -6019,7 +6681,7 @@
         <v>270</v>
       </c>
       <c r="AA17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AD17" t="s">
         <v>279</v>
@@ -6045,7 +6707,7 @@
         <v>284</v>
       </c>
       <c r="AA18" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF18" t="s">
         <v>286</v>
@@ -6065,7 +6727,7 @@
         <v>283</v>
       </c>
       <c r="AA19" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AF19" t="s">
         <v>291</v>
@@ -6085,7 +6747,7 @@
         <v>289</v>
       </c>
       <c r="AA20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF20" t="s">
         <v>296</v>
@@ -6105,7 +6767,7 @@
         <v>294</v>
       </c>
       <c r="AA21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AF21" t="s">
         <v>300</v>
@@ -6125,7 +6787,7 @@
         <v>584</v>
       </c>
       <c r="AA22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AF22" t="s">
         <v>305</v>
@@ -6145,7 +6807,7 @@
         <v>303</v>
       </c>
       <c r="AA23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AF23" t="s">
         <v>310</v>
@@ -6165,7 +6827,7 @@
         <v>308</v>
       </c>
       <c r="AA24" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF24" t="s">
         <v>315</v>
@@ -6185,7 +6847,7 @@
         <v>313</v>
       </c>
       <c r="AA25" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF25" t="s">
         <v>320</v>
@@ -6193,7 +6855,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="F26" t="s">
         <v>321</v>
@@ -6205,7 +6867,7 @@
         <v>318</v>
       </c>
       <c r="AA26" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AF26" t="s">
         <v>325</v>
@@ -6225,7 +6887,7 @@
         <v>323</v>
       </c>
       <c r="AA27" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AF27" t="s">
         <v>330</v>
@@ -6245,7 +6907,7 @@
         <v>328</v>
       </c>
       <c r="AA28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
@@ -6262,7 +6924,7 @@
         <v>333</v>
       </c>
       <c r="AA29" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30">
@@ -6279,7 +6941,7 @@
         <v>337</v>
       </c>
       <c r="AA30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31">
@@ -6293,7 +6955,7 @@
         <v>343</v>
       </c>
       <c r="AA31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32">
@@ -6307,7 +6969,7 @@
         <v>346</v>
       </c>
       <c r="AA32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
@@ -6318,7 +6980,7 @@
         <v>349</v>
       </c>
       <c r="AA33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
@@ -6329,7 +6991,7 @@
         <v>352</v>
       </c>
       <c r="AA34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
@@ -6340,7 +7002,7 @@
         <v>355</v>
       </c>
       <c r="AA35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
@@ -6351,7 +7013,7 @@
         <v>358</v>
       </c>
       <c r="AA36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
@@ -6362,7 +7024,7 @@
         <v>361</v>
       </c>
       <c r="AA37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38">
@@ -6373,7 +7035,7 @@
         <v>364</v>
       </c>
       <c r="AA38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
@@ -6384,7 +7046,7 @@
         <v>367</v>
       </c>
       <c r="AA39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40">
@@ -6392,7 +7054,7 @@
         <v>369</v>
       </c>
       <c r="AA40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
@@ -6400,7 +7062,7 @@
         <v>371</v>
       </c>
       <c r="AA41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
@@ -6408,7 +7070,7 @@
         <v>373</v>
       </c>
       <c r="AA42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
@@ -6416,7 +7078,7 @@
         <v>375</v>
       </c>
       <c r="AA43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
@@ -6424,7 +7086,7 @@
         <v>377</v>
       </c>
       <c r="AA44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
@@ -6432,7 +7094,7 @@
         <v>379</v>
       </c>
       <c r="AA45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
@@ -6440,7 +7102,7 @@
         <v>381</v>
       </c>
       <c r="AA46" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
@@ -6448,7 +7110,7 @@
         <v>383</v>
       </c>
       <c r="AA47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
@@ -6456,7 +7118,7 @@
         <v>385</v>
       </c>
       <c r="AA48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
@@ -6464,7 +7126,7 @@
         <v>387</v>
       </c>
       <c r="AA49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
@@ -6472,7 +7134,7 @@
         <v>389</v>
       </c>
       <c r="AA50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
@@ -6480,7 +7142,7 @@
         <v>391</v>
       </c>
       <c r="AA51" t="s">
-        <v>390</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52">
@@ -6488,7 +7150,7 @@
         <v>393</v>
       </c>
       <c r="AA52" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53">
@@ -6496,7 +7158,7 @@
         <v>395</v>
       </c>
       <c r="AA53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
@@ -6504,7 +7166,7 @@
         <v>397</v>
       </c>
       <c r="AA54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55">
@@ -6512,7 +7174,7 @@
         <v>399</v>
       </c>
       <c r="AA55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
@@ -6520,7 +7182,7 @@
         <v>401</v>
       </c>
       <c r="AA56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57">
@@ -6528,7 +7190,7 @@
         <v>403</v>
       </c>
       <c r="AA57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58">
@@ -6536,7 +7198,7 @@
         <v>405</v>
       </c>
       <c r="AA58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59">
@@ -6544,7 +7206,7 @@
         <v>407</v>
       </c>
       <c r="AA59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60">
@@ -6552,7 +7214,7 @@
         <v>409</v>
       </c>
       <c r="AA60" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61">
@@ -6560,7 +7222,7 @@
         <v>411</v>
       </c>
       <c r="AA61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62">
@@ -6568,7 +7230,7 @@
         <v>413</v>
       </c>
       <c r="AA62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63">
@@ -6576,7 +7238,7 @@
         <v>415</v>
       </c>
       <c r="AA63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64">
@@ -6584,7 +7246,7 @@
         <v>417</v>
       </c>
       <c r="AA64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65">
@@ -6592,7 +7254,7 @@
         <v>419</v>
       </c>
       <c r="AA65" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66">
@@ -6600,7 +7262,7 @@
         <v>421</v>
       </c>
       <c r="AA66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67">
@@ -6608,7 +7270,7 @@
         <v>423</v>
       </c>
       <c r="AA67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68">
@@ -6616,7 +7278,7 @@
         <v>425</v>
       </c>
       <c r="AA68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69">
@@ -6624,7 +7286,7 @@
         <v>427</v>
       </c>
       <c r="AA69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70">
@@ -6632,7 +7294,7 @@
         <v>429</v>
       </c>
       <c r="AA70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71">
@@ -6640,7 +7302,7 @@
         <v>431</v>
       </c>
       <c r="AA71" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72">
@@ -6648,7 +7310,7 @@
         <v>433</v>
       </c>
       <c r="AA72" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73">
@@ -6656,7 +7318,7 @@
         <v>435</v>
       </c>
       <c r="AA73" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74">
@@ -6664,7 +7326,7 @@
         <v>437</v>
       </c>
       <c r="AA74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
@@ -6672,7 +7334,7 @@
         <v>439</v>
       </c>
       <c r="AA75" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76">
@@ -6680,7 +7342,7 @@
         <v>441</v>
       </c>
       <c r="AA76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77">
@@ -6688,7 +7350,7 @@
         <v>443</v>
       </c>
       <c r="AA77" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78">
@@ -6696,7 +7358,7 @@
         <v>445</v>
       </c>
       <c r="AA78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79">
@@ -6704,7 +7366,7 @@
         <v>447</v>
       </c>
       <c r="AA79" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80">
@@ -6712,7 +7374,7 @@
         <v>449</v>
       </c>
       <c r="AA80" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81">
@@ -6720,7 +7382,7 @@
         <v>451</v>
       </c>
       <c r="AA81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82">
@@ -6728,7 +7390,7 @@
         <v>453</v>
       </c>
       <c r="AA82" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83">
@@ -6736,7 +7398,7 @@
         <v>455</v>
       </c>
       <c r="AA83" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84">
@@ -6744,7 +7406,7 @@
         <v>457</v>
       </c>
       <c r="AA84" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85">
@@ -6752,7 +7414,7 @@
         <v>459</v>
       </c>
       <c r="AA85" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86">
@@ -6760,7 +7422,7 @@
         <v>461</v>
       </c>
       <c r="AA86" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87">
@@ -6768,7 +7430,7 @@
         <v>463</v>
       </c>
       <c r="AA87" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88">
@@ -6776,7 +7438,7 @@
         <v>465</v>
       </c>
       <c r="AA88" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89">
@@ -6784,7 +7446,7 @@
         <v>467</v>
       </c>
       <c r="AA89" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90">
@@ -6792,7 +7454,7 @@
         <v>469</v>
       </c>
       <c r="AA90" t="s">
-        <v>586</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91">
@@ -6800,7 +7462,7 @@
         <v>471</v>
       </c>
       <c r="AA91" t="s">
-        <v>468</v>
+        <v>586</v>
       </c>
     </row>
     <row r="92">
@@ -6808,7 +7470,7 @@
         <v>473</v>
       </c>
       <c r="AA92" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93">
@@ -6816,7 +7478,7 @@
         <v>475</v>
       </c>
       <c r="AA93" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94">
@@ -6824,7 +7486,7 @@
         <v>477</v>
       </c>
       <c r="AA94" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95">
@@ -6832,7 +7494,7 @@
         <v>479</v>
       </c>
       <c r="AA95" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96">
@@ -6840,7 +7502,7 @@
         <v>481</v>
       </c>
       <c r="AA96" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97">
@@ -6848,7 +7510,7 @@
         <v>483</v>
       </c>
       <c r="AA97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98">
@@ -6856,236 +7518,241 @@
         <v>485</v>
       </c>
       <c r="AA98" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>587</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>487</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>594</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>595</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>596</v>
+        <v>503</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>504</v>
+        <v>596</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>510</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>514</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>523</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -39,22 +39,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="672">
   <si>
     <t>target</t>
   </si>
@@ -1952,13 +1952,163 @@
   <si>
     <t>uncheckAll(locator,waitMs)</t>
   </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89">
+  <fonts count="123">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2525,8 +2675,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="187">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3308,6 +3672,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -4984,7 +5620,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5301,52 +5937,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="92" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5694,7 +6432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5785,21 +6523,24 @@
         <v>612</v>
       </c>
       <c r="AA1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5883,21 +6624,24 @@
         <v>616</v>
       </c>
       <c r="AA2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5972,21 +6716,24 @@
         <v>617</v>
       </c>
       <c r="AA3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB3" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6058,21 +6805,24 @@
         <v>618</v>
       </c>
       <c r="AA4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB4" t="s">
         <v>585</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>108</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>109</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6132,21 +6882,24 @@
         <v>128</v>
       </c>
       <c r="AA5" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB5" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>599</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6203,21 +6956,24 @@
         <v>148</v>
       </c>
       <c r="AA6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB6" t="s">
         <v>149</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>150</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>131</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>152</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>153</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6265,21 +7021,24 @@
         <v>166</v>
       </c>
       <c r="AA7" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB7" t="s">
         <v>167</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>168</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>151</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>170</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>171</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6327,21 +7086,24 @@
         <v>183</v>
       </c>
       <c r="AA8" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB8" t="s">
         <v>184</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>185</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>169</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>188</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6386,15 +7148,18 @@
         <v>200</v>
       </c>
       <c r="AA9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB9" t="s">
         <v>201</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>202</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6430,15 +7195,18 @@
         <v>211</v>
       </c>
       <c r="AA10" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB10" t="s">
         <v>212</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>600</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>213</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6468,15 +7236,18 @@
         <v>221</v>
       </c>
       <c r="S11" t="s">
-        <v>222</v>
+        <v>628</v>
       </c>
       <c r="AA11" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB11" t="s">
         <v>223</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>224</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6506,15 +7277,18 @@
         <v>232</v>
       </c>
       <c r="S12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AA12" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB12" t="s">
         <v>234</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6544,15 +7318,18 @@
         <v>241</v>
       </c>
       <c r="S13" t="s">
-        <v>592</v>
+        <v>233</v>
       </c>
       <c r="AA13" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB13" t="s">
         <v>243</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>244</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6579,15 +7356,18 @@
         <v>251</v>
       </c>
       <c r="S14" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
       <c r="AA14" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB14" t="s">
         <v>253</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>254</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6614,15 +7394,18 @@
         <v>260</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AA15" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB15" t="s">
         <v>619</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>263</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6649,15 +7432,18 @@
         <v>269</v>
       </c>
       <c r="S16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AA16" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB16" t="s">
         <v>593</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>272</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6678,15 +7464,18 @@
         <v>277</v>
       </c>
       <c r="S17" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AA17" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB17" t="s">
         <v>262</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>279</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6706,10 +7495,16 @@
       <c r="N18" t="s">
         <v>284</v>
       </c>
+      <c r="S18" t="s">
+        <v>270</v>
+      </c>
       <c r="AA18" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB18" t="s">
         <v>271</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6718,7 +7513,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>287</v>
+        <v>622</v>
       </c>
       <c r="H19" t="s">
         <v>288</v>
@@ -6727,9 +7522,12 @@
         <v>283</v>
       </c>
       <c r="AA19" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB19" t="s">
         <v>278</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6738,7 +7536,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>623</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6747,9 +7545,12 @@
         <v>289</v>
       </c>
       <c r="AA20" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB20" t="s">
         <v>285</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6758,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>297</v>
+        <v>624</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
@@ -6767,9 +7568,12 @@
         <v>294</v>
       </c>
       <c r="AA21" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB21" t="s">
         <v>290</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6778,7 +7582,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="H22" t="s">
         <v>302</v>
@@ -6787,9 +7591,12 @@
         <v>584</v>
       </c>
       <c r="AA22" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB22" t="s">
         <v>295</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6798,7 +7605,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="H23" t="s">
         <v>307</v>
@@ -6807,9 +7614,12 @@
         <v>303</v>
       </c>
       <c r="AA23" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB23" t="s">
         <v>299</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6818,7 +7628,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H24" t="s">
         <v>312</v>
@@ -6827,9 +7637,12 @@
         <v>308</v>
       </c>
       <c r="AA24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB24" t="s">
         <v>304</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6838,7 +7651,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>316</v>
+        <v>625</v>
       </c>
       <c r="H25" t="s">
         <v>317</v>
@@ -6847,9 +7660,12 @@
         <v>313</v>
       </c>
       <c r="AA25" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB25" t="s">
         <v>309</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6858,234 +7674,294 @@
         <v>612</v>
       </c>
       <c r="F26" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H26" t="s">
         <v>322</v>
       </c>
       <c r="L26" t="s">
-        <v>318</v>
+        <v>627</v>
       </c>
       <c r="AA26" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB26" t="s">
         <v>314</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>603</v>
       </c>
       <c r="F27" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="H27" t="s">
         <v>327</v>
       </c>
       <c r="L27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AA27" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB27" t="s">
         <v>319</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="H28" t="s">
         <v>332</v>
       </c>
       <c r="L28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AA28" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
         <v>336</v>
       </c>
       <c r="L29" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AA29" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB29" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H30" t="s">
         <v>340</v>
       </c>
       <c r="L30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AA30" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H31" t="s">
         <v>343</v>
       </c>
+      <c r="L31" t="s">
+        <v>337</v>
+      </c>
       <c r="AA31" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB31" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H32" t="s">
         <v>346</v>
       </c>
       <c r="AA32" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB32" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="H33" t="s">
         <v>349</v>
       </c>
       <c r="AA33" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB33" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H34" t="s">
         <v>352</v>
       </c>
       <c r="AA34" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB34" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H35" t="s">
         <v>355</v>
       </c>
       <c r="AA35" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB35" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H36" t="s">
         <v>358</v>
       </c>
       <c r="AA36" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H37" t="s">
         <v>361</v>
       </c>
       <c r="AA37" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB37" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H38" t="s">
         <v>364</v>
       </c>
       <c r="AA38" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB38" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H39" t="s">
         <v>367</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
       <c r="H40" t="s">
         <v>369</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>360</v>
+      </c>
       <c r="H41" t="s">
         <v>371</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
       <c r="H42" t="s">
         <v>373</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
       <c r="H43" t="s">
         <v>375</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>626</v>
+      </c>
       <c r="H44" t="s">
         <v>377</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7093,7 +7969,7 @@
       <c r="H45" t="s">
         <v>379</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7101,7 +7977,7 @@
       <c r="H46" t="s">
         <v>381</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7109,7 +7985,7 @@
       <c r="H47" t="s">
         <v>383</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7117,7 +7993,7 @@
       <c r="H48" t="s">
         <v>385</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7125,7 +8001,7 @@
       <c r="H49" t="s">
         <v>387</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7133,7 +8009,7 @@
       <c r="H50" t="s">
         <v>389</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7141,7 +8017,7 @@
       <c r="H51" t="s">
         <v>391</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>620</v>
       </c>
     </row>
@@ -7149,7 +8025,7 @@
       <c r="H52" t="s">
         <v>393</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7157,7 +8033,7 @@
       <c r="H53" t="s">
         <v>395</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7165,7 +8041,7 @@
       <c r="H54" t="s">
         <v>397</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7173,7 +8049,7 @@
       <c r="H55" t="s">
         <v>399</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7181,7 +8057,7 @@
       <c r="H56" t="s">
         <v>401</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7189,7 +8065,7 @@
       <c r="H57" t="s">
         <v>403</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7197,7 +8073,7 @@
       <c r="H58" t="s">
         <v>405</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7205,7 +8081,7 @@
       <c r="H59" t="s">
         <v>407</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7213,7 +8089,7 @@
       <c r="H60" t="s">
         <v>409</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7221,7 +8097,7 @@
       <c r="H61" t="s">
         <v>411</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7229,7 +8105,7 @@
       <c r="H62" t="s">
         <v>413</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7237,7 +8113,7 @@
       <c r="H63" t="s">
         <v>415</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7245,7 +8121,7 @@
       <c r="H64" t="s">
         <v>417</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7253,7 +8129,7 @@
       <c r="H65" t="s">
         <v>419</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7261,7 +8137,7 @@
       <c r="H66" t="s">
         <v>421</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7269,7 +8145,7 @@
       <c r="H67" t="s">
         <v>423</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7277,7 +8153,7 @@
       <c r="H68" t="s">
         <v>425</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7285,7 +8161,7 @@
       <c r="H69" t="s">
         <v>427</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7293,7 +8169,7 @@
       <c r="H70" t="s">
         <v>429</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7301,7 +8177,7 @@
       <c r="H71" t="s">
         <v>431</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7309,7 +8185,7 @@
       <c r="H72" t="s">
         <v>433</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7317,7 +8193,7 @@
       <c r="H73" t="s">
         <v>435</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7325,7 +8201,7 @@
       <c r="H74" t="s">
         <v>437</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7333,7 +8209,7 @@
       <c r="H75" t="s">
         <v>439</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7341,7 +8217,7 @@
       <c r="H76" t="s">
         <v>441</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7349,7 +8225,7 @@
       <c r="H77" t="s">
         <v>443</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7357,7 +8233,7 @@
       <c r="H78" t="s">
         <v>445</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7365,395 +8241,425 @@
       <c r="H79" t="s">
         <v>447</v>
       </c>
-      <c r="AA79" t="s">
-        <v>444</v>
+      <c r="AB79" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>449</v>
       </c>
-      <c r="AA80" t="s">
-        <v>446</v>
+      <c r="AB80" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>451</v>
       </c>
-      <c r="AA81" t="s">
-        <v>448</v>
+      <c r="AB81" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>453</v>
       </c>
-      <c r="AA82" t="s">
-        <v>450</v>
+      <c r="AB82" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>455</v>
       </c>
-      <c r="AA83" t="s">
-        <v>452</v>
+      <c r="AB83" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>457</v>
       </c>
-      <c r="AA84" t="s">
-        <v>454</v>
+      <c r="AB84" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>459</v>
       </c>
-      <c r="AA85" t="s">
-        <v>456</v>
+      <c r="AB85" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>461</v>
       </c>
-      <c r="AA86" t="s">
-        <v>458</v>
+      <c r="AB86" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>463</v>
       </c>
-      <c r="AA87" t="s">
-        <v>460</v>
+      <c r="AB87" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>465</v>
       </c>
-      <c r="AA88" t="s">
-        <v>462</v>
+      <c r="AB88" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>467</v>
       </c>
-      <c r="AA89" t="s">
-        <v>464</v>
+      <c r="AB89" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>469</v>
       </c>
-      <c r="AA90" t="s">
-        <v>466</v>
+      <c r="AB90" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>471</v>
       </c>
-      <c r="AA91" t="s">
-        <v>586</v>
+      <c r="AB91" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>473</v>
       </c>
-      <c r="AA92" t="s">
-        <v>468</v>
+      <c r="AB92" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>475</v>
       </c>
-      <c r="AA93" t="s">
-        <v>470</v>
+      <c r="AB93" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>477</v>
       </c>
-      <c r="AA94" t="s">
-        <v>472</v>
+      <c r="AB94" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>479</v>
       </c>
-      <c r="AA95" t="s">
-        <v>474</v>
+      <c r="AB95" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>481</v>
       </c>
-      <c r="AA96" t="s">
-        <v>476</v>
+      <c r="AB96" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>483</v>
       </c>
-      <c r="AA97" t="s">
-        <v>478</v>
+      <c r="AB97" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>485</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>495</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -46,14 +46,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5441" uniqueCount="674">
   <si>
     <t>target</t>
   </si>
@@ -2102,13 +2102,19 @@
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123">
+  <fonts count="140">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2889,8 +2895,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="187">
+  <fills count="211">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3672,6 +3785,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5620,7 +5869,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6036,55 +6285,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6432,7 +6732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6523,24 +6823,21 @@
         <v>612</v>
       </c>
       <c r="AA1" t="s">
-        <v>603</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6573,7 +6870,7 @@
         <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>673</v>
       </c>
       <c r="K2" t="s">
         <v>610</v>
@@ -6624,24 +6921,21 @@
         <v>616</v>
       </c>
       <c r="AA2" t="s">
-        <v>629</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6671,7 +6965,7 @@
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>69</v>
@@ -6716,24 +7010,21 @@
         <v>617</v>
       </c>
       <c r="AA3" t="s">
-        <v>630</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6760,7 +7051,7 @@
         <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>95</v>
@@ -6805,24 +7096,21 @@
         <v>618</v>
       </c>
       <c r="AA4" t="s">
-        <v>631</v>
+        <v>585</v>
       </c>
       <c r="AB4" t="s">
-        <v>585</v>
+        <v>108</v>
       </c>
       <c r="AC4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6849,7 +7137,7 @@
         <v>117</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
         <v>119</v>
@@ -6882,24 +7170,21 @@
         <v>128</v>
       </c>
       <c r="AA5" t="s">
-        <v>632</v>
+        <v>129</v>
       </c>
       <c r="AB5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC5" t="s">
-        <v>130</v>
+        <v>599</v>
       </c>
       <c r="AD5" t="s">
-        <v>599</v>
+        <v>132</v>
       </c>
       <c r="AE5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6926,7 +7211,7 @@
         <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>582</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
         <v>611</v>
@@ -6956,24 +7241,21 @@
         <v>148</v>
       </c>
       <c r="AA6" t="s">
-        <v>633</v>
+        <v>149</v>
       </c>
       <c r="AB6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AC6" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="AD6" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AE6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6993,6 +7275,9 @@
       <c r="I7" t="s">
         <v>158</v>
       </c>
+      <c r="J7" t="s">
+        <v>582</v>
+      </c>
       <c r="K7" t="s">
         <v>141</v>
       </c>
@@ -7021,24 +7306,21 @@
         <v>166</v>
       </c>
       <c r="AA7" t="s">
-        <v>634</v>
+        <v>167</v>
       </c>
       <c r="AB7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="AD7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AE7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7086,24 +7368,21 @@
         <v>183</v>
       </c>
       <c r="AA8" t="s">
-        <v>635</v>
+        <v>184</v>
       </c>
       <c r="AB8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="AD8" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7148,18 +7427,15 @@
         <v>200</v>
       </c>
       <c r="AA9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB9" t="s">
         <v>201</v>
       </c>
+      <c r="AC9" t="s">
+        <v>186</v>
+      </c>
       <c r="AD9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE9" t="s">
         <v>202</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7195,18 +7471,15 @@
         <v>211</v>
       </c>
       <c r="AA10" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB10" t="s">
         <v>212</v>
       </c>
+      <c r="AC10" t="s">
+        <v>600</v>
+      </c>
       <c r="AD10" t="s">
-        <v>600</v>
-      </c>
-      <c r="AE10" t="s">
         <v>213</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7215,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>672</v>
       </c>
       <c r="H11" t="s">
         <v>216</v>
@@ -7239,15 +7512,12 @@
         <v>628</v>
       </c>
       <c r="AA11" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB11" t="s">
         <v>223</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>224</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7256,7 +7526,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
         <v>227</v>
@@ -7280,15 +7550,12 @@
         <v>222</v>
       </c>
       <c r="AA12" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB12" t="s">
         <v>234</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7297,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
         <v>237</v>
@@ -7321,15 +7588,12 @@
         <v>233</v>
       </c>
       <c r="AA13" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB13" t="s">
         <v>243</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>244</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7338,7 +7602,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
         <v>247</v>
@@ -7359,15 +7623,12 @@
         <v>592</v>
       </c>
       <c r="AA14" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB14" t="s">
         <v>253</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>254</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7376,7 +7637,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
         <v>257</v>
@@ -7397,15 +7658,12 @@
         <v>242</v>
       </c>
       <c r="AA15" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB15" t="s">
         <v>619</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>263</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7414,7 +7672,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
         <v>266</v>
@@ -7435,15 +7693,12 @@
         <v>252</v>
       </c>
       <c r="AA16" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB16" t="s">
         <v>593</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>272</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7452,7 +7707,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H17" t="s">
         <v>275</v>
@@ -7467,15 +7722,12 @@
         <v>261</v>
       </c>
       <c r="AA17" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB17" t="s">
         <v>262</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>279</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7484,7 +7736,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H18" t="s">
         <v>282</v>
@@ -7499,12 +7751,9 @@
         <v>270</v>
       </c>
       <c r="AA18" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB18" t="s">
         <v>271</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7513,7 +7762,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>622</v>
+        <v>281</v>
       </c>
       <c r="H19" t="s">
         <v>288</v>
@@ -7522,12 +7771,9 @@
         <v>283</v>
       </c>
       <c r="AA19" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB19" t="s">
         <v>278</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7536,7 +7782,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -7545,12 +7791,9 @@
         <v>289</v>
       </c>
       <c r="AA20" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB20" t="s">
         <v>285</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7559,7 +7802,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
@@ -7568,12 +7811,9 @@
         <v>294</v>
       </c>
       <c r="AA21" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB21" t="s">
         <v>290</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7582,7 +7822,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>287</v>
+        <v>624</v>
       </c>
       <c r="H22" t="s">
         <v>302</v>
@@ -7591,12 +7831,9 @@
         <v>584</v>
       </c>
       <c r="AA22" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB22" t="s">
         <v>295</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7605,7 +7842,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H23" t="s">
         <v>307</v>
@@ -7614,12 +7851,9 @@
         <v>303</v>
       </c>
       <c r="AA23" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB23" t="s">
         <v>299</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7628,7 +7862,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H24" t="s">
         <v>312</v>
@@ -7637,12 +7871,9 @@
         <v>308</v>
       </c>
       <c r="AA24" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB24" t="s">
         <v>304</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7651,7 +7882,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>625</v>
+        <v>297</v>
       </c>
       <c r="H25" t="s">
         <v>317</v>
@@ -7660,12 +7891,9 @@
         <v>313</v>
       </c>
       <c r="AA25" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB25" t="s">
         <v>309</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7674,7 +7902,7 @@
         <v>612</v>
       </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>625</v>
       </c>
       <c r="H26" t="s">
         <v>322</v>
@@ -7683,21 +7911,18 @@
         <v>627</v>
       </c>
       <c r="AA26" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB26" t="s">
         <v>314</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>603</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H27" t="s">
         <v>327</v>
@@ -7706,21 +7931,18 @@
         <v>318</v>
       </c>
       <c r="AA27" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB27" t="s">
         <v>319</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H28" t="s">
         <v>332</v>
@@ -7729,18 +7951,15 @@
         <v>323</v>
       </c>
       <c r="AA28" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H29" t="s">
         <v>336</v>
@@ -7749,18 +7968,15 @@
         <v>328</v>
       </c>
       <c r="AA29" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB29" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H30" t="s">
         <v>340</v>
@@ -7769,18 +7985,15 @@
         <v>333</v>
       </c>
       <c r="AA30" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H31" t="s">
         <v>343</v>
@@ -7789,187 +8002,163 @@
         <v>337</v>
       </c>
       <c r="AA31" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB31" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H32" t="s">
         <v>346</v>
       </c>
       <c r="AA32" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB32" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H33" t="s">
         <v>349</v>
       </c>
       <c r="AA33" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB33" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H34" t="s">
         <v>352</v>
       </c>
       <c r="AA34" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB34" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H35" t="s">
         <v>355</v>
       </c>
       <c r="AA35" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB35" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H36" t="s">
         <v>358</v>
       </c>
       <c r="AA36" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H37" t="s">
         <v>361</v>
       </c>
       <c r="AA37" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB37" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H38" t="s">
         <v>364</v>
       </c>
       <c r="AA38" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB38" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H39" t="s">
         <v>367</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H40" t="s">
         <v>369</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H41" t="s">
         <v>371</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H42" t="s">
         <v>373</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H43" t="s">
         <v>375</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>626</v>
+        <v>366</v>
       </c>
       <c r="H44" t="s">
         <v>377</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>626</v>
+      </c>
       <c r="H45" t="s">
         <v>379</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7977,7 +8166,7 @@
       <c r="H46" t="s">
         <v>381</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7985,7 +8174,7 @@
       <c r="H47" t="s">
         <v>383</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7993,7 +8182,7 @@
       <c r="H48" t="s">
         <v>385</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8001,7 +8190,7 @@
       <c r="H49" t="s">
         <v>387</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8009,7 +8198,7 @@
       <c r="H50" t="s">
         <v>389</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8017,7 +8206,7 @@
       <c r="H51" t="s">
         <v>391</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>620</v>
       </c>
     </row>
@@ -8025,7 +8214,7 @@
       <c r="H52" t="s">
         <v>393</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8033,7 +8222,7 @@
       <c r="H53" t="s">
         <v>395</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8041,7 +8230,7 @@
       <c r="H54" t="s">
         <v>397</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8049,7 +8238,7 @@
       <c r="H55" t="s">
         <v>399</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8057,7 +8246,7 @@
       <c r="H56" t="s">
         <v>401</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8065,7 +8254,7 @@
       <c r="H57" t="s">
         <v>403</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8073,7 +8262,7 @@
       <c r="H58" t="s">
         <v>405</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8081,7 +8270,7 @@
       <c r="H59" t="s">
         <v>407</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8089,7 +8278,7 @@
       <c r="H60" t="s">
         <v>409</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8097,7 +8286,7 @@
       <c r="H61" t="s">
         <v>411</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8105,7 +8294,7 @@
       <c r="H62" t="s">
         <v>413</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8113,7 +8302,7 @@
       <c r="H63" t="s">
         <v>415</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8121,7 +8310,7 @@
       <c r="H64" t="s">
         <v>417</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8129,7 +8318,7 @@
       <c r="H65" t="s">
         <v>419</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>416</v>
       </c>
     </row>
@@ -8137,7 +8326,7 @@
       <c r="H66" t="s">
         <v>421</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8145,7 +8334,7 @@
       <c r="H67" t="s">
         <v>423</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>420</v>
       </c>
     </row>
@@ -8153,7 +8342,7 @@
       <c r="H68" t="s">
         <v>425</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8161,7 +8350,7 @@
       <c r="H69" t="s">
         <v>427</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8169,7 +8358,7 @@
       <c r="H70" t="s">
         <v>429</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8177,7 +8366,7 @@
       <c r="H71" t="s">
         <v>431</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>428</v>
       </c>
     </row>
@@ -8185,7 +8374,7 @@
       <c r="H72" t="s">
         <v>433</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8193,7 +8382,7 @@
       <c r="H73" t="s">
         <v>435</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8201,7 +8390,7 @@
       <c r="H74" t="s">
         <v>437</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>434</v>
       </c>
     </row>
@@ -8209,7 +8398,7 @@
       <c r="H75" t="s">
         <v>439</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8217,7 +8406,7 @@
       <c r="H76" t="s">
         <v>441</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8225,7 +8414,7 @@
       <c r="H77" t="s">
         <v>443</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8233,7 +8422,7 @@
       <c r="H78" t="s">
         <v>445</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8241,7 +8430,7 @@
       <c r="H79" t="s">
         <v>447</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>664</v>
       </c>
     </row>
@@ -8249,7 +8438,7 @@
       <c r="H80" t="s">
         <v>449</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8257,7 +8446,7 @@
       <c r="H81" t="s">
         <v>451</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8265,7 +8454,7 @@
       <c r="H82" t="s">
         <v>453</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8273,7 +8462,7 @@
       <c r="H83" t="s">
         <v>455</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8281,7 +8470,7 @@
       <c r="H84" t="s">
         <v>457</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8289,7 +8478,7 @@
       <c r="H85" t="s">
         <v>459</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8297,7 +8486,7 @@
       <c r="H86" t="s">
         <v>461</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8305,7 +8494,7 @@
       <c r="H87" t="s">
         <v>463</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8313,7 +8502,7 @@
       <c r="H88" t="s">
         <v>465</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8321,7 +8510,7 @@
       <c r="H89" t="s">
         <v>467</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8329,7 +8518,7 @@
       <c r="H90" t="s">
         <v>469</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8337,7 +8526,7 @@
       <c r="H91" t="s">
         <v>471</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8345,7 +8534,7 @@
       <c r="H92" t="s">
         <v>473</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>586</v>
       </c>
     </row>
@@ -8353,7 +8542,7 @@
       <c r="H93" t="s">
         <v>475</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>468</v>
       </c>
     </row>
@@ -8361,7 +8550,7 @@
       <c r="H94" t="s">
         <v>477</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8369,7 +8558,7 @@
       <c r="H95" t="s">
         <v>479</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8377,7 +8566,7 @@
       <c r="H96" t="s">
         <v>481</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>474</v>
       </c>
     </row>
@@ -8385,7 +8574,7 @@
       <c r="H97" t="s">
         <v>483</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8393,272 +8582,272 @@
       <c r="H98" t="s">
         <v>485</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>671</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5441" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="674">
   <si>
     <t>target</t>
   </si>
@@ -2114,7 +2114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140">
+  <fonts count="174">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3002,8 +3002,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="211">
+  <fills count="259">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3785,6 +3999,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -5869,7 +6355,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6336,55 +6822,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="146" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -29,12 +29,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7855" uniqueCount="678">
   <si>
     <t>target</t>
   </si>
@@ -2108,13 +2108,25 @@
   <si>
     <t>openFile(filePath)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="174">
+  <fonts count="208">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3216,8 +3228,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="259">
+  <fills count="307">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3999,6 +4225,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -6355,7 +6853,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6924,55 +7422,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7479,7 +8079,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>675</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -7573,6 +8173,9 @@
       <c r="P3" t="s">
         <v>74</v>
       </c>
+      <c r="Q3" t="s">
+        <v>676</v>
+      </c>
       <c r="R3" t="s">
         <v>75</v>
       </c>
@@ -7659,6 +8262,9 @@
       <c r="P4" t="s">
         <v>100</v>
       </c>
+      <c r="Q4" t="s">
+        <v>677</v>
+      </c>
       <c r="R4" t="s">
         <v>101</v>
       </c>
@@ -7870,7 +8476,7 @@
         <v>141</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>674</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -7932,7 +8538,7 @@
         <v>159</v>
       </c>
       <c r="L8" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>178</v>
@@ -7991,7 +8597,7 @@
         <v>193</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="N9" t="s">
         <v>195</v>
@@ -8041,7 +8647,7 @@
         <v>601</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="N10" t="s">
         <v>207</v>
@@ -8085,7 +8691,7 @@
         <v>602</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="N11" t="s">
         <v>219</v>
@@ -8123,7 +8729,7 @@
         <v>205</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N12" t="s">
         <v>230</v>
@@ -8161,7 +8767,7 @@
         <v>217</v>
       </c>
       <c r="L13" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="N13" t="s">
         <v>240</v>
@@ -8199,7 +8805,7 @@
         <v>228</v>
       </c>
       <c r="L14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="N14" t="s">
         <v>250</v>
@@ -8234,7 +8840,7 @@
         <v>238</v>
       </c>
       <c r="L15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N15" t="s">
         <v>259</v>
@@ -8269,7 +8875,7 @@
         <v>248</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N16" t="s">
         <v>268</v>
@@ -8301,7 +8907,7 @@
         <v>275</v>
       </c>
       <c r="L17" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N17" t="s">
         <v>277</v>
@@ -8330,7 +8936,7 @@
         <v>282</v>
       </c>
       <c r="L18" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="N18" t="s">
         <v>284</v>
@@ -8356,7 +8962,7 @@
         <v>288</v>
       </c>
       <c r="L19" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AA19" t="s">
         <v>278</v>
@@ -8376,7 +8982,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AA20" t="s">
         <v>285</v>
@@ -8396,7 +9002,7 @@
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AA21" t="s">
         <v>290</v>
@@ -8416,7 +9022,7 @@
         <v>302</v>
       </c>
       <c r="L22" t="s">
-        <v>584</v>
+        <v>294</v>
       </c>
       <c r="AA22" t="s">
         <v>295</v>
@@ -8436,7 +9042,7 @@
         <v>307</v>
       </c>
       <c r="L23" t="s">
-        <v>303</v>
+        <v>584</v>
       </c>
       <c r="AA23" t="s">
         <v>299</v>
@@ -8456,7 +9062,7 @@
         <v>312</v>
       </c>
       <c r="L24" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AA24" t="s">
         <v>304</v>
@@ -8476,7 +9082,7 @@
         <v>317</v>
       </c>
       <c r="L25" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AA25" t="s">
         <v>309</v>
@@ -8496,7 +9102,7 @@
         <v>322</v>
       </c>
       <c r="L26" t="s">
-        <v>627</v>
+        <v>313</v>
       </c>
       <c r="AA26" t="s">
         <v>314</v>
@@ -8516,7 +9122,7 @@
         <v>327</v>
       </c>
       <c r="L27" t="s">
-        <v>318</v>
+        <v>627</v>
       </c>
       <c r="AA27" t="s">
         <v>319</v>
@@ -8536,7 +9142,7 @@
         <v>332</v>
       </c>
       <c r="L28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AA28" t="s">
         <v>324</v>
@@ -8553,7 +9159,7 @@
         <v>336</v>
       </c>
       <c r="L29" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AA29" t="s">
         <v>329</v>
@@ -8570,7 +9176,7 @@
         <v>340</v>
       </c>
       <c r="L30" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AA30" t="s">
         <v>334</v>
@@ -8587,7 +9193,7 @@
         <v>343</v>
       </c>
       <c r="L31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AA31" t="s">
         <v>338</v>
@@ -8602,6 +9208,9 @@
       </c>
       <c r="H32" t="s">
         <v>346</v>
+      </c>
+      <c r="L32" t="s">
+        <v>337</v>
       </c>
       <c r="AA32" t="s">
         <v>341</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -34,12 +34,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7855" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8464" uniqueCount="684">
   <si>
     <t>target</t>
   </si>
@@ -2120,13 +2120,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="208">
+  <fonts count="225">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3442,8 +3460,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="307">
+  <fills count="331">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4225,6 +4350,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -6853,7 +7114,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="252">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -7524,55 +7785,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="197" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8079,7 +8391,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -8174,7 +8486,7 @@
         <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="R3" t="s">
         <v>75</v>
@@ -8263,7 +8575,7 @@
         <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>677</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
         <v>101</v>
@@ -8345,6 +8657,9 @@
       <c r="O5" t="s">
         <v>122</v>
       </c>
+      <c r="Q5" t="s">
+        <v>680</v>
+      </c>
       <c r="R5" t="s">
         <v>123</v>
       </c>
@@ -8779,7 +9094,7 @@
         <v>241</v>
       </c>
       <c r="S13" t="s">
-        <v>233</v>
+        <v>681</v>
       </c>
       <c r="AA13" t="s">
         <v>243</v>
@@ -8814,7 +9129,7 @@
         <v>251</v>
       </c>
       <c r="S14" t="s">
-        <v>592</v>
+        <v>233</v>
       </c>
       <c r="AA14" t="s">
         <v>253</v>
@@ -8849,7 +9164,7 @@
         <v>260</v>
       </c>
       <c r="S15" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
       <c r="AA15" t="s">
         <v>619</v>
@@ -8884,7 +9199,7 @@
         <v>269</v>
       </c>
       <c r="S16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AA16" t="s">
         <v>593</v>
@@ -8913,7 +9228,7 @@
         <v>277</v>
       </c>
       <c r="S17" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AA17" t="s">
         <v>262</v>
@@ -8942,7 +9257,7 @@
         <v>284</v>
       </c>
       <c r="S18" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AA18" t="s">
         <v>271</v>
@@ -8964,6 +9279,9 @@
       <c r="L19" t="s">
         <v>276</v>
       </c>
+      <c r="S19" t="s">
+        <v>682</v>
+      </c>
       <c r="AA19" t="s">
         <v>278</v>
       </c>
@@ -8984,6 +9302,9 @@
       <c r="L20" t="s">
         <v>283</v>
       </c>
+      <c r="S20" t="s">
+        <v>270</v>
+      </c>
       <c r="AA20" t="s">
         <v>285</v>
       </c>
@@ -9003,6 +9324,9 @@
       </c>
       <c r="L21" t="s">
         <v>289</v>
+      </c>
+      <c r="S21" t="s">
+        <v>683</v>
       </c>
       <c r="AA21" t="s">
         <v>290</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -21,12 +21,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -46,23 +46,25 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8464" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9107" uniqueCount="721">
   <si>
     <t>target</t>
   </si>
@@ -2138,13 +2140,124 @@
   <si>
     <t>split(pdf,saveTo)</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="225">
+  <fonts count="242">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3567,8 +3680,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="331">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4350,6 +4570,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -7114,7 +7470,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="269">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -7885,6 +8241,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="224" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8232,7 +8639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8332,12 +8739,18 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8430,12 +8843,18 @@
         <v>57</v>
       </c>
       <c r="AD2" t="s">
+        <v>710</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8522,12 +8941,18 @@
         <v>84</v>
       </c>
       <c r="AD3" t="s">
+        <v>711</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8611,12 +9036,18 @@
         <v>109</v>
       </c>
       <c r="AD4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF4" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8687,13 +9118,16 @@
       <c r="AC5" t="s">
         <v>599</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF5" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8758,13 +9192,16 @@
       <c r="AC6" t="s">
         <v>131</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF6" t="s">
         <v>152</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>153</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8823,13 +9260,16 @@
       <c r="AC7" t="s">
         <v>151</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>718</v>
+      </c>
+      <c r="AF7" t="s">
         <v>170</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>171</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8847,7 +9287,7 @@
         <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
+        <v>706</v>
       </c>
       <c r="K8" t="s">
         <v>159</v>
@@ -8885,13 +9325,16 @@
       <c r="AC8" t="s">
         <v>169</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>719</v>
+      </c>
+      <c r="AF8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>188</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -8909,7 +9352,7 @@
         <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L9" t="s">
         <v>160</v>
@@ -8941,10 +9384,13 @@
       <c r="AC9" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>720</v>
+      </c>
+      <c r="AF9" t="s">
         <v>202</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8959,7 +9405,7 @@
         <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>601</v>
+        <v>193</v>
       </c>
       <c r="L10" t="s">
         <v>177</v>
@@ -8985,10 +9431,10 @@
       <c r="AC10" t="s">
         <v>600</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>213</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9003,7 +9449,7 @@
         <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L11" t="s">
         <v>194</v>
@@ -9023,10 +9469,10 @@
       <c r="AA11" t="s">
         <v>223</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>224</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9041,7 +9487,7 @@
         <v>227</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>602</v>
       </c>
       <c r="L12" t="s">
         <v>206</v>
@@ -9061,10 +9507,10 @@
       <c r="AA12" t="s">
         <v>234</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>235</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9079,7 +9525,7 @@
         <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L13" t="s">
         <v>218</v>
@@ -9099,10 +9545,10 @@
       <c r="AA13" t="s">
         <v>243</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>244</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9117,7 +9563,7 @@
         <v>247</v>
       </c>
       <c r="I14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L14" t="s">
         <v>229</v>
@@ -9134,10 +9580,10 @@
       <c r="AA14" t="s">
         <v>253</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>254</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9152,7 +9598,7 @@
         <v>257</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L15" t="s">
         <v>239</v>
@@ -9169,10 +9615,10 @@
       <c r="AA15" t="s">
         <v>619</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>263</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -9187,7 +9633,7 @@
         <v>266</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L16" t="s">
         <v>249</v>
@@ -9204,10 +9650,10 @@
       <c r="AA16" t="s">
         <v>593</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>272</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9221,6 +9667,9 @@
       <c r="H17" t="s">
         <v>275</v>
       </c>
+      <c r="I17" t="s">
+        <v>248</v>
+      </c>
       <c r="L17" t="s">
         <v>258</v>
       </c>
@@ -9233,10 +9682,10 @@
       <c r="AA17" t="s">
         <v>262</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>279</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9250,6 +9699,9 @@
       <c r="H18" t="s">
         <v>282</v>
       </c>
+      <c r="I18" t="s">
+        <v>707</v>
+      </c>
       <c r="L18" t="s">
         <v>267</v>
       </c>
@@ -9262,7 +9714,7 @@
       <c r="AA18" t="s">
         <v>271</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>286</v>
       </c>
     </row>
@@ -9271,7 +9723,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>686</v>
       </c>
       <c r="H19" t="s">
         <v>288</v>
@@ -9285,7 +9737,7 @@
       <c r="AA19" t="s">
         <v>278</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9294,7 +9746,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>622</v>
+        <v>687</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -9308,7 +9760,7 @@
       <c r="AA20" t="s">
         <v>285</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9317,7 +9769,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>623</v>
+        <v>281</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
@@ -9331,7 +9783,7 @@
       <c r="AA21" t="s">
         <v>290</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9340,7 +9792,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H22" t="s">
         <v>302</v>
@@ -9351,7 +9803,7 @@
       <c r="AA22" t="s">
         <v>295</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9360,7 +9812,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>623</v>
       </c>
       <c r="H23" t="s">
         <v>307</v>
@@ -9371,7 +9823,7 @@
       <c r="AA23" t="s">
         <v>299</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>310</v>
       </c>
     </row>
@@ -9380,7 +9832,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>624</v>
       </c>
       <c r="H24" t="s">
         <v>312</v>
@@ -9391,7 +9843,7 @@
       <c r="AA24" t="s">
         <v>304</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9400,7 +9852,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H25" t="s">
         <v>317</v>
@@ -9411,7 +9863,7 @@
       <c r="AA25" t="s">
         <v>309</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>320</v>
       </c>
     </row>
@@ -9420,18 +9872,18 @@
         <v>612</v>
       </c>
       <c r="F26" t="s">
-        <v>625</v>
+        <v>292</v>
       </c>
       <c r="H26" t="s">
-        <v>322</v>
+        <v>688</v>
       </c>
       <c r="L26" t="s">
         <v>313</v>
       </c>
       <c r="AA26" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>708</v>
+      </c>
+      <c r="AH26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9440,18 +9892,18 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H27" t="s">
-        <v>327</v>
+        <v>689</v>
       </c>
       <c r="L27" t="s">
         <v>627</v>
       </c>
       <c r="AA27" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH27" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9460,16 +9912,16 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>625</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L28" t="s">
         <v>318</v>
       </c>
       <c r="AA28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
@@ -9477,898 +9929,959 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L29" t="s">
         <v>323</v>
       </c>
       <c r="AA29" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>684</v>
       </c>
       <c r="F30" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L30" t="s">
         <v>328</v>
       </c>
       <c r="AA30" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>685</v>
       </c>
       <c r="F31" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L31" t="s">
         <v>333</v>
       </c>
       <c r="AA31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L32" t="s">
         <v>337</v>
       </c>
       <c r="AA32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA33" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>331</v>
-      </c>
-      <c r="H33" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>326</v>
+      </c>
+      <c r="H34" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA34" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>335</v>
-      </c>
-      <c r="H34" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H35" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AA35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H36" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AA36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H37" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AA37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H38" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AA38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H39" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AA39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H40" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AA40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H41" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AA41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H42" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AA42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H43" t="s">
-        <v>375</v>
+        <v>690</v>
       </c>
       <c r="AA43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H44" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AA44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="H45" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="H46" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>626</v>
       </c>
-      <c r="H45" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA47" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AA48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AA49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AA50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AA51" t="s">
-        <v>620</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA52" t="s">
-        <v>390</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AA53" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>397</v>
+        <v>691</v>
       </c>
       <c r="AA54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>399</v>
+        <v>692</v>
       </c>
       <c r="AA55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>401</v>
+        <v>693</v>
       </c>
       <c r="AA56" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>403</v>
+        <v>694</v>
       </c>
       <c r="AA57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AA58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AA59" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AA60" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AA61" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AA62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AA63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AA64" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AA65" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AA66" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>423</v>
+        <v>695</v>
       </c>
       <c r="AA67" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>425</v>
+        <v>696</v>
       </c>
       <c r="AA68" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>427</v>
+        <v>697</v>
       </c>
       <c r="AA69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AA70" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>431</v>
+        <v>698</v>
       </c>
       <c r="AA71" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>433</v>
+        <v>699</v>
       </c>
       <c r="AA72" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="AA73" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="AA74" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AA75" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AA76" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AA77" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="AA78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="AA79" t="s">
-        <v>664</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AA80" t="s">
-        <v>444</v>
+        <v>664</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AA81" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AA82" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AA83" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>457</v>
+        <v>700</v>
       </c>
       <c r="AA84" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>459</v>
+        <v>701</v>
       </c>
       <c r="AA85" t="s">
-        <v>454</v>
+        <v>709</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="AA86" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AA87" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AA88" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AA89" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>469</v>
+        <v>702</v>
       </c>
       <c r="AA90" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>471</v>
+        <v>703</v>
       </c>
       <c r="AA91" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="AA92" t="s">
-        <v>586</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="AA93" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AA94" t="s">
-        <v>470</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="AA95" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="AA96" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="AA97" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>485</v>
       </c>
-      <c r="AA98" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>494</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>665</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>666</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>496</v>
+        <v>665</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>497</v>
+        <v>666</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>503</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>596</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>505</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>597</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>515</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>667</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>598</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>521</v>
+        <v>667</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>668</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>669</v>
+        <v>523</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>671</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_config_expression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2251,8 +2251,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -2311,14 +2311,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2328,7 +2364,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2343,75 +2418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2419,9 +2426,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2434,17 +2441,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2476,7 +2476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2488,7 +2494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,7 +2512,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,151 +2656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2703,19 +2703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,8 +2726,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2747,8 +2738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2769,6 +2760,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2783,24 +2789,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2818,128 +2818,128 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5680,16 +5680,16 @@
   <sheetPr/>
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="48.75" style="5" customWidth="1"/>
@@ -6046,7 +6046,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="1:15">
+    <row r="13" ht="90" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
@@ -10971,10 +10971,10 @@
   <sheetPr/>
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
